--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_36.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_14_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2149107.662679069</v>
+        <v>2148352.869695947</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736558</v>
+        <v>504792.0292736552</v>
       </c>
     </row>
     <row r="9">
@@ -1148,7 +1148,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="H8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>8.816525072005941</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,70 +1209,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>8.816525072005941</v>
+      </c>
+      <c r="T9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="U9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="I9" t="n">
-        <v>10.00967878293136</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>10.00967878293136</v>
       </c>
       <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="S10" t="n">
+      <c r="V10" t="n">
+        <v>10.00967878293136</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>8.816525072005941</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>287.4621822983377</v>
       </c>
       <c r="C11" t="n">
-        <v>275.4734992560194</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>266.4548033005474</v>
+        <v>203.9302467206837</v>
       </c>
       <c r="E11" t="n">
         <v>288.196940870453</v>
@@ -1382,13 +1382,13 @@
         <v>307.3687569584301</v>
       </c>
       <c r="G11" t="n">
-        <v>308.7702359084508</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>212.0245683230109</v>
+        <v>221.4059562765828</v>
       </c>
       <c r="I11" t="n">
-        <v>47.94631158407879</v>
+        <v>47.94631158407876</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>117.1465288645458</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>149.6530179828525</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>230.9685595385168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>256.2686590164737</v>
       </c>
       <c r="X11" t="n">
         <v>275.5689172492204</v>
       </c>
       <c r="Y11" t="n">
-        <v>286.9655150454191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>127.1566828057039</v>
       </c>
       <c r="H12" t="n">
-        <v>96.19049711964607</v>
+        <v>96.19049711964605</v>
       </c>
       <c r="I12" t="n">
-        <v>57.9020697188221</v>
+        <v>57.90206971882209</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>41.52047263646534</v>
+        <v>41.52047263646533</v>
       </c>
       <c r="S12" t="n">
         <v>145.9864318313356</v>
@@ -1607,25 +1607,25 @@
         <v>287.4621822983377</v>
       </c>
       <c r="C14" t="n">
-        <v>275.4734992560194</v>
+        <v>275.4734992560195</v>
       </c>
       <c r="D14" t="n">
-        <v>170.4389939098987</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>288.1969408704529</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>307.3687569584301</v>
       </c>
       <c r="G14" t="n">
-        <v>308.7702359084507</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>151.0941295662809</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.94631158407879</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.59762315252743</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>117.1465288645459</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>149.6530179828525</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>230.9685595385168</v>
       </c>
       <c r="W14" t="n">
         <v>256.2686590164737</v>
       </c>
       <c r="X14" t="n">
-        <v>275.5689172492203</v>
+        <v>275.5689172492204</v>
       </c>
       <c r="Y14" t="n">
         <v>286.9655150454191</v>
@@ -1704,7 +1704,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I15" t="n">
-        <v>57.90206971882209</v>
+        <v>57.90206971882208</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>41.52047263646533</v>
+        <v>41.5204726364653</v>
       </c>
       <c r="S15" t="n">
         <v>145.9864318313356</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.07889317303476</v>
+        <v>79.0788931730348</v>
       </c>
       <c r="C16" t="n">
-        <v>65.27888801843524</v>
+        <v>65.27888801843528</v>
       </c>
       <c r="D16" t="n">
-        <v>48.90025241601363</v>
+        <v>48.90025241601367</v>
       </c>
       <c r="E16" t="n">
-        <v>47.84800227179308</v>
+        <v>47.84800227179312</v>
       </c>
       <c r="F16" t="n">
-        <v>48.31492659997939</v>
+        <v>48.31492659997943</v>
       </c>
       <c r="G16" t="n">
-        <v>64.35108710701108</v>
+        <v>64.35108710701112</v>
       </c>
       <c r="H16" t="n">
-        <v>53.01713980218868</v>
+        <v>53.01713980218872</v>
       </c>
       <c r="I16" t="n">
-        <v>32.94647717468521</v>
+        <v>32.94647717468525</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65991636537672</v>
+        <v>34.65991636537675</v>
       </c>
       <c r="S16" t="n">
-        <v>104.7746029199931</v>
+        <v>104.7746029199932</v>
       </c>
       <c r="T16" t="n">
-        <v>127.1870160031713</v>
+        <v>127.1870160031714</v>
       </c>
       <c r="U16" t="n">
         <v>181.6644038977817</v>
       </c>
       <c r="V16" t="n">
-        <v>155.4870295726603</v>
+        <v>155.4870295726604</v>
       </c>
       <c r="W16" t="n">
         <v>180.6539156432736</v>
       </c>
       <c r="X16" t="n">
-        <v>126.2990176390767</v>
+        <v>126.2990176390768</v>
       </c>
       <c r="Y16" t="n">
-        <v>117.1738853951444</v>
+        <v>117.1738853951445</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>224.1916469265039</v>
+        <v>224.1916469265038</v>
       </c>
       <c r="C17" t="n">
         <v>212.2029638841856</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.327087780693619</v>
+        <v>7.327087780693574</v>
       </c>
       <c r="T17" t="n">
-        <v>53.87599349271205</v>
+        <v>53.87599349271198</v>
       </c>
       <c r="U17" t="n">
-        <v>86.3824826110187</v>
+        <v>86.38248261101865</v>
       </c>
       <c r="V17" t="n">
         <v>167.698024166683</v>
@@ -1910,7 +1910,7 @@
         <v>212.2983818773865</v>
       </c>
       <c r="Y17" t="n">
-        <v>223.6949796735845</v>
+        <v>223.6949796735852</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.80835780120097</v>
+        <v>15.80835780120091</v>
       </c>
       <c r="C19" t="n">
-        <v>2.008352646601452</v>
+        <v>2.008352646601395</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.080551735177294</v>
+        <v>1.080551735177238</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>41.50406754815933</v>
+        <v>41.50406754815927</v>
       </c>
       <c r="T19" t="n">
-        <v>63.91648063133756</v>
+        <v>63.91648063133751</v>
       </c>
       <c r="U19" t="n">
-        <v>118.3938685259479</v>
+        <v>271.5587350774368</v>
       </c>
       <c r="V19" t="n">
-        <v>92.21649420082656</v>
+        <v>92.2164942008265</v>
       </c>
       <c r="W19" t="n">
         <v>117.3833802714398</v>
       </c>
       <c r="X19" t="n">
-        <v>63.02848226724294</v>
+        <v>63.02848226724288</v>
       </c>
       <c r="Y19" t="n">
-        <v>55.52704233428416</v>
+        <v>53.90335002331057</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.1916469265039</v>
+        <v>224.1916469265038</v>
       </c>
       <c r="C20" t="n">
         <v>212.2029638841856</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>7.327087780693619</v>
+        <v>7.327087780693574</v>
       </c>
       <c r="T20" t="n">
-        <v>53.87599349271205</v>
+        <v>53.87599349271198</v>
       </c>
       <c r="U20" t="n">
-        <v>86.3824826110187</v>
+        <v>86.38248261101865</v>
       </c>
       <c r="V20" t="n">
         <v>167.698024166683</v>
@@ -2147,7 +2147,7 @@
         <v>212.2983818773865</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6949796735853</v>
+        <v>223.6949796735852</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15.80835780120097</v>
+        <v>15.80835780120091</v>
       </c>
       <c r="C22" t="n">
-        <v>2.008352646601452</v>
+        <v>2.008352646601395</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.080551735177294</v>
+        <v>1.080551735177238</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>137.300838189878</v>
       </c>
       <c r="S22" t="n">
-        <v>194.6689340996478</v>
+        <v>41.50406754815927</v>
       </c>
       <c r="T22" t="n">
-        <v>63.91648063133756</v>
+        <v>63.91648063133751</v>
       </c>
       <c r="U22" t="n">
-        <v>118.3938685259479</v>
+        <v>134.2578968875589</v>
       </c>
       <c r="V22" t="n">
-        <v>92.21649420082656</v>
+        <v>92.2164942008265</v>
       </c>
       <c r="W22" t="n">
         <v>117.3833802714398</v>
       </c>
       <c r="X22" t="n">
-        <v>63.02848226724294</v>
+        <v>63.02848226724288</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.90335002331062</v>
+        <v>53.90335002331057</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>224.1916469265039</v>
+        <v>224.1916469265038</v>
       </c>
       <c r="C23" t="n">
         <v>212.2029638841856</v>
@@ -2330,7 +2330,7 @@
         <v>244.0982215865963</v>
       </c>
       <c r="G23" t="n">
-        <v>245.499700536617</v>
+        <v>245.4997005366169</v>
       </c>
       <c r="H23" t="n">
         <v>158.135420904749</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.327087780693631</v>
+        <v>7.327087780693574</v>
       </c>
       <c r="T23" t="n">
-        <v>53.87599349271204</v>
+        <v>53.87599349271198</v>
       </c>
       <c r="U23" t="n">
-        <v>86.3824826110187</v>
+        <v>86.38248261101865</v>
       </c>
       <c r="V23" t="n">
         <v>167.698024166683</v>
@@ -2384,7 +2384,7 @@
         <v>212.2983818773865</v>
       </c>
       <c r="Y23" t="n">
-        <v>223.6949796735853</v>
+        <v>223.6949796735852</v>
       </c>
     </row>
     <row r="24">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.80835780120097</v>
+        <v>15.80835780120091</v>
       </c>
       <c r="C25" t="n">
-        <v>2.008352646601452</v>
+        <v>17.87238100821244</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.080551735177294</v>
+        <v>1.080551735177238</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>137.300838189878</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6689340996478</v>
+        <v>41.50406754815927</v>
       </c>
       <c r="T25" t="n">
-        <v>63.91648063133756</v>
+        <v>63.91648063133751</v>
       </c>
       <c r="U25" t="n">
         <v>118.3938685259479</v>
       </c>
       <c r="V25" t="n">
-        <v>92.21649420082656</v>
+        <v>92.2164942008265</v>
       </c>
       <c r="W25" t="n">
         <v>117.3833802714398</v>
       </c>
       <c r="X25" t="n">
-        <v>63.02848226724294</v>
+        <v>63.02848226724288</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.90335002331062</v>
+        <v>53.90335002331057</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>307.3687569584301</v>
       </c>
       <c r="G26" t="n">
-        <v>308.7702359084498</v>
+        <v>308.7702359084508</v>
       </c>
       <c r="H26" t="n">
         <v>221.4059562765828</v>
       </c>
       <c r="I26" t="n">
-        <v>47.9463115840788</v>
+        <v>47.94631158407834</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I27" t="n">
-        <v>57.9020697188221</v>
+        <v>57.90206971882209</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>41.52047263646534</v>
+        <v>41.52047263646533</v>
       </c>
       <c r="S27" t="n">
         <v>145.9864318313356</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.07889317303479</v>
+        <v>79.0788931730348</v>
       </c>
       <c r="C28" t="n">
-        <v>65.27888801843527</v>
+        <v>65.27888801843528</v>
       </c>
       <c r="D28" t="n">
-        <v>48.90025241601366</v>
+        <v>48.90025241601367</v>
       </c>
       <c r="E28" t="n">
-        <v>47.84800227179311</v>
+        <v>47.84800227179312</v>
       </c>
       <c r="F28" t="n">
-        <v>48.31492659997942</v>
+        <v>48.31492659997943</v>
       </c>
       <c r="G28" t="n">
-        <v>64.35108710701111</v>
+        <v>64.35108710701112</v>
       </c>
       <c r="H28" t="n">
-        <v>53.01713980218871</v>
+        <v>53.01713980218872</v>
       </c>
       <c r="I28" t="n">
-        <v>32.94647717468525</v>
+        <v>32.94647717468526</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>34.65991636537676</v>
       </c>
       <c r="S28" t="n">
-        <v>104.7746029199931</v>
+        <v>104.7746029199932</v>
       </c>
       <c r="T28" t="n">
         <v>127.1870160031714</v>
@@ -2779,7 +2779,7 @@
         <v>126.2990176390768</v>
       </c>
       <c r="Y28" t="n">
-        <v>117.1738853951444</v>
+        <v>117.1738853951445</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>221.4059562765828</v>
       </c>
       <c r="I29" t="n">
-        <v>47.94631158407877</v>
+        <v>47.94631158407874</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.59762315252743</v>
+        <v>70.59762315252742</v>
       </c>
       <c r="T29" t="n">
         <v>117.1465288645459</v>
@@ -2889,7 +2889,7 @@
         <v>96.19049711964605</v>
       </c>
       <c r="I30" t="n">
-        <v>57.90206971882209</v>
+        <v>57.90206971882208</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.52047263646533</v>
+        <v>41.5204726364653</v>
       </c>
       <c r="S30" t="n">
         <v>145.9864318313356</v>
@@ -2965,10 +2965,10 @@
         <v>64.35108710701111</v>
       </c>
       <c r="H31" t="n">
-        <v>53.01713980218871</v>
+        <v>53.0171398021887</v>
       </c>
       <c r="I31" t="n">
-        <v>32.94647717468524</v>
+        <v>32.94647717468523</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65991636537674</v>
+        <v>34.65991636537673</v>
       </c>
       <c r="S31" t="n">
         <v>104.7746029199931</v>
@@ -3029,25 +3029,25 @@
         <v>284.8724782036177</v>
       </c>
       <c r="C32" t="n">
-        <v>272.8837951612995</v>
+        <v>272.8837951612994</v>
       </c>
       <c r="D32" t="n">
         <v>263.8650992058274</v>
       </c>
       <c r="E32" t="n">
-        <v>285.607236775733</v>
+        <v>285.6072367757329</v>
       </c>
       <c r="F32" t="n">
-        <v>304.7790528637101</v>
+        <v>304.77905286371</v>
       </c>
       <c r="G32" t="n">
-        <v>306.1805318137308</v>
+        <v>306.1805318137307</v>
       </c>
       <c r="H32" t="n">
-        <v>218.8162521818629</v>
+        <v>218.8162521818628</v>
       </c>
       <c r="I32" t="n">
-        <v>45.35660748935879</v>
+        <v>45.35660748935871</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>68.00791905780747</v>
+        <v>68.00791905780738</v>
       </c>
       <c r="T32" t="n">
-        <v>114.5568247698259</v>
+        <v>114.5568247698258</v>
       </c>
       <c r="U32" t="n">
         <v>147.0633138881325</v>
       </c>
       <c r="V32" t="n">
-        <v>228.3788554437969</v>
+        <v>228.3788554437968</v>
       </c>
       <c r="W32" t="n">
-        <v>253.6789549217538</v>
+        <v>253.6789549217537</v>
       </c>
       <c r="X32" t="n">
-        <v>272.9792131545004</v>
+        <v>272.9792131545003</v>
       </c>
       <c r="Y32" t="n">
-        <v>284.3758109506991</v>
+        <v>284.375810950699</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>76.48918907831481</v>
+        <v>76.48918907831472</v>
       </c>
       <c r="C34" t="n">
-        <v>62.68918392371529</v>
+        <v>62.68918392371521</v>
       </c>
       <c r="D34" t="n">
-        <v>46.31054832129368</v>
+        <v>46.3105483212936</v>
       </c>
       <c r="E34" t="n">
-        <v>45.25829817707313</v>
+        <v>45.25829817707304</v>
       </c>
       <c r="F34" t="n">
-        <v>45.72522250525944</v>
+        <v>45.72522250525935</v>
       </c>
       <c r="G34" t="n">
-        <v>61.76138301229113</v>
+        <v>61.76138301229105</v>
       </c>
       <c r="H34" t="n">
-        <v>50.42743570746873</v>
+        <v>50.42743570746865</v>
       </c>
       <c r="I34" t="n">
-        <v>30.35677307996527</v>
+        <v>30.35677307996518</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.07021227065677</v>
+        <v>32.07021227065668</v>
       </c>
       <c r="S34" t="n">
-        <v>102.1848988252732</v>
+        <v>102.1848988252731</v>
       </c>
       <c r="T34" t="n">
-        <v>124.5973119084514</v>
+        <v>124.5973119084513</v>
       </c>
       <c r="U34" t="n">
         <v>179.0746998030617</v>
       </c>
       <c r="V34" t="n">
-        <v>152.8973254779404</v>
+        <v>152.8973254779403</v>
       </c>
       <c r="W34" t="n">
-        <v>178.0642115485537</v>
+        <v>178.0642115485536</v>
       </c>
       <c r="X34" t="n">
-        <v>123.7093135443568</v>
+        <v>123.7093135443567</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5841813004245</v>
+        <v>114.5841813004244</v>
       </c>
     </row>
     <row r="35">
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>77.46465073114643</v>
+        <v>54.24983544197397</v>
       </c>
       <c r="T37" t="n">
-        <v>76.66224852515221</v>
+        <v>99.8770638143247</v>
       </c>
       <c r="U37" t="n">
         <v>131.1396364197626</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>23.21481528917242</v>
       </c>
       <c r="S40" t="n">
-        <v>77.46465073114643</v>
+        <v>54.24983544197397</v>
       </c>
       <c r="T40" t="n">
         <v>76.66224852515221</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.8872195726045</v>
+        <v>257.8872195726044</v>
       </c>
       <c r="C41" t="n">
         <v>245.8985365302862</v>
       </c>
       <c r="D41" t="n">
-        <v>236.8798405748142</v>
+        <v>236.8798405748141</v>
       </c>
       <c r="E41" t="n">
-        <v>258.6219781447197</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>277.7937942326969</v>
+        <v>277.7937942326968</v>
       </c>
       <c r="G41" t="n">
-        <v>279.1952731827175</v>
+        <v>244.5199847954347</v>
       </c>
       <c r="H41" t="n">
-        <v>191.8309935508496</v>
+        <v>191.8309935508495</v>
       </c>
       <c r="I41" t="n">
-        <v>18.37134885834556</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.02266042679422</v>
+        <v>41.02266042679413</v>
       </c>
       <c r="T41" t="n">
-        <v>87.57156613881264</v>
+        <v>87.57156613881256</v>
       </c>
       <c r="U41" t="n">
-        <v>120.0780552571193</v>
+        <v>120.0780552571192</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>201.3935968127835</v>
       </c>
       <c r="W41" t="n">
-        <v>116.4186777131744</v>
+        <v>226.6936962907404</v>
       </c>
       <c r="X41" t="n">
-        <v>245.9939545234871</v>
+        <v>245.993954523487</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.3905523196859</v>
+        <v>257.3905523196858</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.50393044730157</v>
+        <v>49.50393044730149</v>
       </c>
       <c r="C43" t="n">
-        <v>35.70392529270205</v>
+        <v>35.70392529270197</v>
       </c>
       <c r="D43" t="n">
-        <v>19.32528969028044</v>
+        <v>19.32528969028036</v>
       </c>
       <c r="E43" t="n">
-        <v>18.27303954605989</v>
+        <v>18.27303954605981</v>
       </c>
       <c r="F43" t="n">
-        <v>18.7399638742462</v>
+        <v>18.73996387424611</v>
       </c>
       <c r="G43" t="n">
-        <v>34.7761243812779</v>
+        <v>34.77612438127781</v>
       </c>
       <c r="H43" t="n">
-        <v>23.44217707645549</v>
+        <v>23.4421770764554</v>
       </c>
       <c r="I43" t="n">
-        <v>3.371514448952029</v>
+        <v>3.371514448951944</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>5.084953639643533</v>
+        <v>5.084953639643448</v>
       </c>
       <c r="S43" t="n">
-        <v>75.19964019425993</v>
+        <v>75.19964019425984</v>
       </c>
       <c r="T43" t="n">
-        <v>97.61205327743816</v>
+        <v>97.61205327743808</v>
       </c>
       <c r="U43" t="n">
-        <v>152.0894411720485</v>
+        <v>152.0894411720484</v>
       </c>
       <c r="V43" t="n">
-        <v>125.9120668469272</v>
+        <v>125.9120668469271</v>
       </c>
       <c r="W43" t="n">
-        <v>151.0789529175404</v>
+        <v>151.0789529175403</v>
       </c>
       <c r="X43" t="n">
-        <v>96.72405491334354</v>
+        <v>96.72405491334345</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.59892266941122</v>
+        <v>87.59892266941114</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>257.8872195726045</v>
+        <v>257.8872195726044</v>
       </c>
       <c r="C44" t="n">
         <v>245.8985365302862</v>
       </c>
       <c r="D44" t="n">
-        <v>236.8798405748142</v>
+        <v>236.8798405748141</v>
       </c>
       <c r="E44" t="n">
         <v>258.6219781447197</v>
       </c>
       <c r="F44" t="n">
-        <v>277.7937942326969</v>
+        <v>263.6918008834113</v>
       </c>
       <c r="G44" t="n">
-        <v>279.1952731827175</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>191.8309935508496</v>
+        <v>191.8309935508495</v>
       </c>
       <c r="I44" t="n">
-        <v>18.37134885834553</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.02266042679419</v>
+        <v>41.02266042679413</v>
       </c>
       <c r="T44" t="n">
-        <v>87.57156613881261</v>
+        <v>87.57156613881256</v>
       </c>
       <c r="U44" t="n">
-        <v>120.0780552571193</v>
+        <v>120.0780552571192</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>201.3935968127835</v>
       </c>
       <c r="W44" t="n">
-        <v>226.6936962907405</v>
+        <v>226.6936962907404</v>
       </c>
       <c r="X44" t="n">
-        <v>245.9939545234871</v>
+        <v>245.993954523487</v>
       </c>
       <c r="Y44" t="n">
-        <v>147.1155337421197</v>
+        <v>257.3905523196858</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.50393044730154</v>
+        <v>49.50393044730149</v>
       </c>
       <c r="C46" t="n">
-        <v>35.70392529270202</v>
+        <v>35.70392529270197</v>
       </c>
       <c r="D46" t="n">
-        <v>19.32528969028041</v>
+        <v>19.32528969028036</v>
       </c>
       <c r="E46" t="n">
-        <v>18.27303954605986</v>
+        <v>18.27303954605981</v>
       </c>
       <c r="F46" t="n">
-        <v>18.73996387424617</v>
+        <v>18.73996387424611</v>
       </c>
       <c r="G46" t="n">
-        <v>34.77612438127787</v>
+        <v>34.77612438127781</v>
       </c>
       <c r="H46" t="n">
-        <v>23.44217707645546</v>
+        <v>23.4421770764554</v>
       </c>
       <c r="I46" t="n">
-        <v>3.371514448952</v>
+        <v>3.371514448951944</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>5.084953639643505</v>
+        <v>5.084953639643448</v>
       </c>
       <c r="S46" t="n">
-        <v>75.1996401942599</v>
+        <v>75.19964019425984</v>
       </c>
       <c r="T46" t="n">
-        <v>97.61205327743814</v>
+        <v>97.61205327743808</v>
       </c>
       <c r="U46" t="n">
-        <v>152.0894411720485</v>
+        <v>152.0894411720484</v>
       </c>
       <c r="V46" t="n">
         <v>125.9120668469271</v>
       </c>
       <c r="W46" t="n">
-        <v>151.0789529175404</v>
+        <v>151.0789529175403</v>
       </c>
       <c r="X46" t="n">
-        <v>96.72405491334351</v>
+        <v>96.72405491334345</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.59892266941119</v>
+        <v>87.59892266941114</v>
       </c>
     </row>
   </sheetData>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="E8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="F8" t="n">
-        <v>29.92792848229982</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="G8" t="n">
-        <v>19.81714183287421</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="H8" t="n">
         <v>9.70635518344859</v>
@@ -4808,13 +4808,13 @@
         <v>20.6199382928386</v>
       </c>
       <c r="L8" t="n">
+        <v>20.6199382928386</v>
+      </c>
+      <c r="M8" t="n">
+        <v>20.6199382928386</v>
+      </c>
+      <c r="N8" t="n">
         <v>30.52952028794065</v>
-      </c>
-      <c r="M8" t="n">
-        <v>40.03871513172544</v>
-      </c>
-      <c r="N8" t="n">
-        <v>40.03871513172544</v>
       </c>
       <c r="O8" t="n">
         <v>40.03871513172544</v>
@@ -4838,16 +4838,16 @@
         <v>40.03871513172544</v>
       </c>
       <c r="V8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31.13313425091136</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G9" t="n">
-        <v>21.02234760148574</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H9" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I9" t="n">
         <v>0.8007743026345088</v>
@@ -4884,22 +4884,22 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K9" t="n">
-        <v>10.3099691464193</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="L9" t="n">
         <v>10.3099691464193</v>
       </c>
       <c r="M9" t="n">
-        <v>20.21955114152135</v>
+        <v>10.3099691464193</v>
       </c>
       <c r="N9" t="n">
         <v>20.21955114152135</v>
       </c>
       <c r="O9" t="n">
-        <v>20.21955114152135</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P9" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q9" t="n">
         <v>40.03871513172544</v>
@@ -4908,25 +4908,25 @@
         <v>40.03871513172544</v>
       </c>
       <c r="S9" t="n">
-        <v>40.03871513172544</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="T9" t="n">
-        <v>40.03871513172544</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="U9" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="V9" t="n">
-        <v>40.03871513172544</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="W9" t="n">
-        <v>31.13313425091136</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="X9" t="n">
-        <v>31.13313425091136</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="Y9" t="n">
-        <v>31.13313425091136</v>
+        <v>10.91156095206012</v>
       </c>
     </row>
     <row r="10">
@@ -4936,46 +4936,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="C10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="D10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="E10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="F10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="G10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="H10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="I10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="J10" t="n">
         <v>0.8007743026345088</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M10" t="n">
-        <v>10.71035629773655</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="N10" t="n">
-        <v>20.6199382928386</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O10" t="n">
-        <v>30.52952028794065</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
@@ -4984,28 +4984,28 @@
         <v>29.92792848229982</v>
       </c>
       <c r="R10" t="n">
+        <v>29.92792848229982</v>
+      </c>
+      <c r="S10" t="n">
+        <v>29.92792848229982</v>
+      </c>
+      <c r="T10" t="n">
+        <v>29.92792848229982</v>
+      </c>
+      <c r="U10" t="n">
         <v>19.81714183287421</v>
       </c>
-      <c r="S10" t="n">
-        <v>10.91156095206012</v>
-      </c>
-      <c r="T10" t="n">
-        <v>10.91156095206012</v>
-      </c>
-      <c r="U10" t="n">
-        <v>10.91156095206012</v>
-      </c>
       <c r="V10" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="W10" t="n">
-        <v>10.91156095206012</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="X10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.91156095206012</v>
+        <v>0.8007743026345088</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1774.109140267186</v>
+        <v>1130.283984922983</v>
       </c>
       <c r="C11" t="n">
-        <v>1495.853080412621</v>
+        <v>1130.283984922983</v>
       </c>
       <c r="D11" t="n">
-        <v>1226.706814452472</v>
+        <v>924.2938367202721</v>
       </c>
       <c r="E11" t="n">
-        <v>935.5987933712067</v>
+        <v>633.1858156390065</v>
       </c>
       <c r="F11" t="n">
-        <v>625.1253014940046</v>
+        <v>322.7123237618043</v>
       </c>
       <c r="G11" t="n">
-        <v>313.2361743137512</v>
+        <v>322.7123237618043</v>
       </c>
       <c r="H11" t="n">
-        <v>99.06994368444782</v>
+        <v>99.06994368444779</v>
       </c>
       <c r="I11" t="n">
         <v>50.63932592275207</v>
@@ -5042,22 +5042,22 @@
         <v>167.3214431483646</v>
       </c>
       <c r="K11" t="n">
-        <v>474.4309080280415</v>
+        <v>474.4309080280416</v>
       </c>
       <c r="L11" t="n">
-        <v>905.3973625869424</v>
+        <v>905.3973625869427</v>
       </c>
       <c r="M11" t="n">
-        <v>1391.08023999041</v>
+        <v>1391.080239990411</v>
       </c>
       <c r="N11" t="n">
-        <v>1834.393168528417</v>
+        <v>1863.351145721844</v>
       </c>
       <c r="O11" t="n">
-        <v>2228.102203462698</v>
+        <v>2257.060180656125</v>
       </c>
       <c r="P11" t="n">
-        <v>2531.966296137603</v>
+        <v>2380.681090994256</v>
       </c>
       <c r="Q11" t="n">
         <v>2531.966296137603</v>
@@ -5072,19 +5072,19 @@
         <v>2342.3257385446</v>
       </c>
       <c r="U11" t="n">
-        <v>2342.3257385446</v>
+        <v>2191.161073915457</v>
       </c>
       <c r="V11" t="n">
-        <v>2342.3257385446</v>
+        <v>1957.859498624025</v>
       </c>
       <c r="W11" t="n">
-        <v>2342.3257385446</v>
+        <v>1699.002267294254</v>
       </c>
       <c r="X11" t="n">
-        <v>2063.973296878721</v>
+        <v>1420.649825628375</v>
       </c>
       <c r="Y11" t="n">
-        <v>1774.109140267186</v>
+        <v>1420.649825628375</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>50.63932592275207</v>
       </c>
       <c r="J12" t="n">
-        <v>50.63932592275207</v>
+        <v>137.5067023934301</v>
       </c>
       <c r="K12" t="n">
-        <v>50.63932592275207</v>
+        <v>412.483503809827</v>
       </c>
       <c r="L12" t="n">
-        <v>382.1973385969704</v>
+        <v>839.4672239188728</v>
       </c>
       <c r="M12" t="n">
-        <v>938.6037153416578</v>
+        <v>1395.87360066356</v>
       </c>
       <c r="N12" t="n">
-        <v>1523.131416247198</v>
+        <v>1980.401301569101</v>
       </c>
       <c r="O12" t="n">
         <v>1982.351834253087</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>414.9390970238696</v>
+        <v>414.9390970238698</v>
       </c>
       <c r="C13" t="n">
-        <v>349.0008262981774</v>
+        <v>349.0008262981776</v>
       </c>
       <c r="D13" t="n">
-        <v>299.6066319385677</v>
+        <v>299.6066319385678</v>
       </c>
       <c r="E13" t="n">
-        <v>251.275316512514</v>
+        <v>251.2753165125142</v>
       </c>
       <c r="F13" t="n">
-        <v>202.4723603509186</v>
+        <v>202.4723603509188</v>
       </c>
       <c r="G13" t="n">
-        <v>137.4712622630286</v>
+        <v>137.4712622630288</v>
       </c>
       <c r="H13" t="n">
-        <v>83.91859579617136</v>
+        <v>83.9185957961715</v>
       </c>
       <c r="I13" t="n">
         <v>50.63932592275207</v>
@@ -5200,13 +5200,13 @@
         <v>110.0880241976686</v>
       </c>
       <c r="K13" t="n">
-        <v>272.7438500392108</v>
+        <v>272.7438500392109</v>
       </c>
       <c r="L13" t="n">
-        <v>510.0755164020618</v>
+        <v>510.0755164020621</v>
       </c>
       <c r="M13" t="n">
-        <v>766.7021857489988</v>
+        <v>766.7021857489991</v>
       </c>
       <c r="N13" t="n">
         <v>1022.877469947108</v>
@@ -5215,34 +5215,34 @@
         <v>1256.33531818274</v>
       </c>
       <c r="P13" t="n">
-        <v>1449.480405090491</v>
+        <v>1449.480405090492</v>
       </c>
       <c r="Q13" t="n">
         <v>1533.099380467822</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.089363937138</v>
+        <v>1498.089363937139</v>
       </c>
       <c r="S13" t="n">
         <v>1392.256431694721</v>
       </c>
       <c r="T13" t="n">
-        <v>1263.784698358184</v>
+        <v>1263.784698358185</v>
       </c>
       <c r="U13" t="n">
         <v>1080.285300481637</v>
       </c>
       <c r="V13" t="n">
-        <v>923.2276948526874</v>
+        <v>923.2276948526876</v>
       </c>
       <c r="W13" t="n">
-        <v>740.748992182714</v>
+        <v>740.7489921827142</v>
       </c>
       <c r="X13" t="n">
-        <v>613.1742268907173</v>
+        <v>613.1742268907175</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.8167668956219</v>
+        <v>494.8167668956221</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1414.526625825027</v>
+        <v>840.4198283114482</v>
       </c>
       <c r="C14" t="n">
-        <v>1136.270565970462</v>
+        <v>562.1637684568832</v>
       </c>
       <c r="D14" t="n">
-        <v>964.1099660614732</v>
+        <v>562.1637684568832</v>
       </c>
       <c r="E14" t="n">
-        <v>673.0019449802076</v>
+        <v>562.1637684568832</v>
       </c>
       <c r="F14" t="n">
-        <v>362.5284531030053</v>
+        <v>251.690276579681</v>
       </c>
       <c r="G14" t="n">
-        <v>50.63932592275207</v>
+        <v>251.690276579681</v>
       </c>
       <c r="H14" t="n">
-        <v>50.63932592275207</v>
+        <v>99.06994368444782</v>
       </c>
       <c r="I14" t="n">
         <v>50.63932592275207</v>
       </c>
       <c r="J14" t="n">
-        <v>50.63932592275207</v>
+        <v>167.3214431483647</v>
       </c>
       <c r="K14" t="n">
-        <v>357.7487908024291</v>
+        <v>445.4729308346143</v>
       </c>
       <c r="L14" t="n">
-        <v>788.7152453613301</v>
+        <v>876.4393853935154</v>
       </c>
       <c r="M14" t="n">
-        <v>1274.398122764798</v>
+        <v>1362.122262796983</v>
       </c>
       <c r="N14" t="n">
-        <v>1746.669028496231</v>
+        <v>1834.393168528416</v>
       </c>
       <c r="O14" t="n">
-        <v>2140.378063430512</v>
+        <v>2228.102203462698</v>
       </c>
       <c r="P14" t="n">
-        <v>2444.242156105418</v>
+        <v>2531.966296137603</v>
       </c>
       <c r="Q14" t="n">
         <v>2531.966296137603</v>
@@ -5303,25 +5303,25 @@
         <v>2531.966296137603</v>
       </c>
       <c r="S14" t="n">
-        <v>2531.966296137603</v>
+        <v>2460.655565680505</v>
       </c>
       <c r="T14" t="n">
-        <v>2531.966296137603</v>
+        <v>2342.3257385446</v>
       </c>
       <c r="U14" t="n">
-        <v>2531.966296137603</v>
+        <v>2191.161073915456</v>
       </c>
       <c r="V14" t="n">
-        <v>2531.966296137603</v>
+        <v>1957.859498624025</v>
       </c>
       <c r="W14" t="n">
-        <v>2273.109064807832</v>
+        <v>1699.002267294254</v>
       </c>
       <c r="X14" t="n">
-        <v>1994.756623141953</v>
+        <v>1420.649825628374</v>
       </c>
       <c r="Y14" t="n">
-        <v>1704.892466530418</v>
+        <v>1130.78566901684</v>
       </c>
     </row>
     <row r="15">
@@ -5364,7 +5364,7 @@
         <v>752.5998474481949</v>
       </c>
       <c r="M15" t="n">
-        <v>938.6037153416563</v>
+        <v>938.603715341656</v>
       </c>
       <c r="N15" t="n">
         <v>1523.131416247197</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>414.9390970238699</v>
+        <v>414.9390970238696</v>
       </c>
       <c r="C16" t="n">
-        <v>349.0008262981777</v>
+        <v>349.0008262981775</v>
       </c>
       <c r="D16" t="n">
-        <v>299.6066319385679</v>
+        <v>299.6066319385677</v>
       </c>
       <c r="E16" t="n">
-        <v>251.2753165125143</v>
+        <v>251.2753165125141</v>
       </c>
       <c r="F16" t="n">
-        <v>202.472360350919</v>
+        <v>202.4723603509186</v>
       </c>
       <c r="G16" t="n">
-        <v>137.471262263029</v>
+        <v>137.4712622630286</v>
       </c>
       <c r="H16" t="n">
-        <v>83.91859579617176</v>
+        <v>83.91859579617153</v>
       </c>
       <c r="I16" t="n">
         <v>50.63932592275207</v>
       </c>
       <c r="J16" t="n">
-        <v>110.0880241976686</v>
+        <v>110.0880241976687</v>
       </c>
       <c r="K16" t="n">
-        <v>272.7438500392108</v>
+        <v>272.7438500392109</v>
       </c>
       <c r="L16" t="n">
-        <v>510.0755164020621</v>
+        <v>510.0755164020616</v>
       </c>
       <c r="M16" t="n">
-        <v>766.7021857489992</v>
+        <v>766.7021857489985</v>
       </c>
       <c r="N16" t="n">
         <v>1022.877469947108</v>
@@ -5455,13 +5455,13 @@
         <v>1449.480405090492</v>
       </c>
       <c r="Q16" t="n">
-        <v>1533.099380467823</v>
+        <v>1533.099380467822</v>
       </c>
       <c r="R16" t="n">
         <v>1498.089363937139</v>
       </c>
       <c r="S16" t="n">
-        <v>1392.256431694722</v>
+        <v>1392.256431694721</v>
       </c>
       <c r="T16" t="n">
         <v>1263.784698358185</v>
@@ -5476,10 +5476,10 @@
         <v>740.7489921827142</v>
       </c>
       <c r="X16" t="n">
-        <v>613.1742268907175</v>
+        <v>613.1742268907174</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.8167668956222</v>
+        <v>494.816766895622</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>932.1138193839456</v>
       </c>
       <c r="E17" t="n">
-        <v>704.915429991401</v>
+        <v>704.9154299914007</v>
       </c>
       <c r="F17" t="n">
         <v>458.3515698029198</v>
       </c>
       <c r="G17" t="n">
-        <v>210.3720743113875</v>
+        <v>210.3720743113874</v>
       </c>
       <c r="H17" t="n">
         <v>50.63932592275207</v>
@@ -5513,22 +5513,22 @@
         <v>50.63932592275207</v>
       </c>
       <c r="J17" t="n">
-        <v>50.63932592275207</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K17" t="n">
-        <v>357.7487908024291</v>
+        <v>474.4309080280416</v>
       </c>
       <c r="L17" t="n">
-        <v>788.7152453613301</v>
+        <v>905.3973625869427</v>
       </c>
       <c r="M17" t="n">
-        <v>1274.398122764798</v>
+        <v>1391.080239990411</v>
       </c>
       <c r="N17" t="n">
-        <v>1746.669028496231</v>
+        <v>1863.351145721844</v>
       </c>
       <c r="O17" t="n">
-        <v>2140.378063430512</v>
+        <v>2257.060180656125</v>
       </c>
       <c r="P17" t="n">
         <v>2380.681090994256</v>
@@ -5540,10 +5540,10 @@
         <v>2531.966296137603</v>
       </c>
       <c r="S17" t="n">
-        <v>2524.565197369226</v>
+        <v>2524.565197369227</v>
       </c>
       <c r="T17" t="n">
-        <v>2470.145001922042</v>
+        <v>2470.145001922043</v>
       </c>
       <c r="U17" t="n">
         <v>2382.88996898162</v>
@@ -5552,7 +5552,7 @@
         <v>2213.49802537891</v>
       </c>
       <c r="W17" t="n">
-        <v>2018.550425737859</v>
+        <v>2018.55042573786</v>
       </c>
       <c r="X17" t="n">
         <v>1804.107615760701</v>
@@ -5592,16 +5592,16 @@
         <v>50.63932592275207</v>
       </c>
       <c r="J18" t="n">
-        <v>137.5067023934301</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="K18" t="n">
-        <v>412.483503809827</v>
+        <v>325.616127339149</v>
       </c>
       <c r="L18" t="n">
-        <v>839.4672239188728</v>
+        <v>752.5998474481949</v>
       </c>
       <c r="M18" t="n">
-        <v>1395.87360066356</v>
+        <v>938.6037153416563</v>
       </c>
       <c r="N18" t="n">
         <v>1523.131416247197</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>206.8313245311295</v>
+        <v>53.75943135889211</v>
       </c>
       <c r="C19" t="n">
-        <v>204.8026854941583</v>
+        <v>51.730792321921</v>
       </c>
       <c r="D19" t="n">
-        <v>51.73079232192106</v>
+        <v>51.730792321921</v>
       </c>
       <c r="E19" t="n">
-        <v>51.73079232192106</v>
+        <v>51.730792321921</v>
       </c>
       <c r="F19" t="n">
-        <v>51.73079232192106</v>
+        <v>51.730792321921</v>
       </c>
       <c r="G19" t="n">
         <v>50.63932592275207</v>
@@ -5698,25 +5698,25 @@
         <v>780.3446311780378</v>
       </c>
       <c r="S19" t="n">
-        <v>738.4213306243415</v>
+        <v>738.4213306243416</v>
       </c>
       <c r="T19" t="n">
-        <v>673.8592289765259</v>
+        <v>673.859228976526</v>
       </c>
       <c r="U19" t="n">
-        <v>554.2694627886997</v>
+        <v>399.5574763730544</v>
       </c>
       <c r="V19" t="n">
-        <v>461.1214888484708</v>
+        <v>306.4095024328256</v>
       </c>
       <c r="W19" t="n">
-        <v>342.5524178672185</v>
+        <v>187.8404314515733</v>
       </c>
       <c r="X19" t="n">
-        <v>278.8872842639428</v>
+        <v>124.1752978482976</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.7993627141608</v>
+        <v>69.72746954192334</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1351.696881821216</v>
+        <v>1351.696881821218</v>
       </c>
       <c r="C20" t="n">
         <v>1137.350453655373</v>
       </c>
       <c r="D20" t="n">
-        <v>932.1138193839449</v>
+        <v>932.1138193839456</v>
       </c>
       <c r="E20" t="n">
-        <v>704.9154299914003</v>
+        <v>704.9154299914011</v>
       </c>
       <c r="F20" t="n">
-        <v>458.3515698029191</v>
+        <v>458.35156980292</v>
       </c>
       <c r="G20" t="n">
-        <v>210.3720743113875</v>
+        <v>210.3720743113874</v>
       </c>
       <c r="H20" t="n">
         <v>50.63932592275207</v>
@@ -5753,22 +5753,22 @@
         <v>167.3214431483646</v>
       </c>
       <c r="K20" t="n">
-        <v>445.4729308346147</v>
+        <v>474.4309080280416</v>
       </c>
       <c r="L20" t="n">
-        <v>876.4393853935157</v>
+        <v>725.1541802501692</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.122262796983</v>
+        <v>1210.837057653637</v>
       </c>
       <c r="N20" t="n">
-        <v>1834.393168528417</v>
+        <v>1683.10796338507</v>
       </c>
       <c r="O20" t="n">
-        <v>2228.102203462698</v>
+        <v>2076.816998319351</v>
       </c>
       <c r="P20" t="n">
-        <v>2531.966296137603</v>
+        <v>2380.681090994256</v>
       </c>
       <c r="Q20" t="n">
         <v>2531.966296137603</v>
@@ -5780,13 +5780,13 @@
         <v>2524.565197369226</v>
       </c>
       <c r="T20" t="n">
-        <v>2470.145001922042</v>
+        <v>2470.145001922043</v>
       </c>
       <c r="U20" t="n">
-        <v>2382.889968981619</v>
+        <v>2382.88996898162</v>
       </c>
       <c r="V20" t="n">
-        <v>2213.498025378909</v>
+        <v>2213.49802537891</v>
       </c>
       <c r="W20" t="n">
         <v>2018.550425737859</v>
@@ -5795,7 +5795,7 @@
         <v>1804.107615760701</v>
       </c>
       <c r="Y20" t="n">
-        <v>1578.153090837887</v>
+        <v>1578.153090837888</v>
       </c>
     </row>
     <row r="21">
@@ -5829,16 +5829,16 @@
         <v>50.63932592275207</v>
       </c>
       <c r="J21" t="n">
-        <v>137.5067023934301</v>
+        <v>50.63932592275207</v>
       </c>
       <c r="K21" t="n">
-        <v>412.483503809827</v>
+        <v>325.616127339149</v>
       </c>
       <c r="L21" t="n">
-        <v>839.4672239188728</v>
+        <v>382.1973385969688</v>
       </c>
       <c r="M21" t="n">
-        <v>1395.87360066356</v>
+        <v>938.6037153416563</v>
       </c>
       <c r="N21" t="n">
         <v>1523.131416247197</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.75943135889222</v>
+        <v>53.75943135889211</v>
       </c>
       <c r="C22" t="n">
-        <v>51.73079232192106</v>
+        <v>51.730792321921</v>
       </c>
       <c r="D22" t="n">
-        <v>51.73079232192106</v>
+        <v>51.730792321921</v>
       </c>
       <c r="E22" t="n">
-        <v>51.73079232192106</v>
+        <v>51.730792321921</v>
       </c>
       <c r="F22" t="n">
-        <v>51.73079232192106</v>
+        <v>51.730792321921</v>
       </c>
       <c r="G22" t="n">
         <v>50.63932592275207</v>
@@ -5932,28 +5932,28 @@
         <v>780.3446311780378</v>
       </c>
       <c r="R22" t="n">
-        <v>780.3446311780378</v>
+        <v>641.6569158347268</v>
       </c>
       <c r="S22" t="n">
-        <v>583.7093442086966</v>
+        <v>599.7336152810306</v>
       </c>
       <c r="T22" t="n">
-        <v>519.147242560881</v>
+        <v>535.1715136332149</v>
       </c>
       <c r="U22" t="n">
-        <v>399.5574763730548</v>
+        <v>399.5574763730544</v>
       </c>
       <c r="V22" t="n">
-        <v>306.4095024328259</v>
+        <v>306.4095024328256</v>
       </c>
       <c r="W22" t="n">
-        <v>187.8404314515736</v>
+        <v>187.8404314515733</v>
       </c>
       <c r="X22" t="n">
-        <v>124.1752978482979</v>
+        <v>124.1752978482976</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.72746954192351</v>
+        <v>69.72746954192334</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1351.696881821218</v>
+        <v>1351.696881821216</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.350453655374</v>
+        <v>1137.350453655372</v>
       </c>
       <c r="D23" t="n">
-        <v>932.1138193839458</v>
+        <v>932.1138193839447</v>
       </c>
       <c r="E23" t="n">
-        <v>704.9154299914012</v>
+        <v>704.9154299914005</v>
       </c>
       <c r="F23" t="n">
-        <v>458.35156980292</v>
+        <v>458.3515698029194</v>
       </c>
       <c r="G23" t="n">
-        <v>210.3720743113875</v>
+        <v>210.3720743113874</v>
       </c>
       <c r="H23" t="n">
-        <v>50.63932592275209</v>
+        <v>50.63932592275208</v>
       </c>
       <c r="I23" t="n">
-        <v>50.63932592275209</v>
+        <v>50.63932592275208</v>
       </c>
       <c r="J23" t="n">
-        <v>50.63932592275209</v>
+        <v>167.3214431483646</v>
       </c>
       <c r="K23" t="n">
-        <v>357.7487908024291</v>
+        <v>294.1877256912682</v>
       </c>
       <c r="L23" t="n">
-        <v>788.7152453613302</v>
+        <v>725.1541802501692</v>
       </c>
       <c r="M23" t="n">
-        <v>1274.398122764798</v>
+        <v>1210.837057653637</v>
       </c>
       <c r="N23" t="n">
-        <v>1746.669028496231</v>
+        <v>1683.10796338507</v>
       </c>
       <c r="O23" t="n">
-        <v>2140.378063430512</v>
+        <v>2076.816998319351</v>
       </c>
       <c r="P23" t="n">
-        <v>2444.242156105418</v>
+        <v>2380.681090994257</v>
       </c>
       <c r="Q23" t="n">
         <v>2531.966296137604</v>
@@ -6020,19 +6020,19 @@
         <v>2470.145001922043</v>
       </c>
       <c r="U23" t="n">
-        <v>2382.88996898162</v>
+        <v>2382.889968981619</v>
       </c>
       <c r="V23" t="n">
-        <v>2213.49802537891</v>
+        <v>2213.498025378909</v>
       </c>
       <c r="W23" t="n">
-        <v>2018.55042573786</v>
+        <v>2018.550425737859</v>
       </c>
       <c r="X23" t="n">
-        <v>1804.107615760702</v>
+        <v>1804.107615760701</v>
       </c>
       <c r="Y23" t="n">
-        <v>1578.153090837888</v>
+        <v>1578.153090837887</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>109.1262650326734</v>
       </c>
       <c r="I24" t="n">
-        <v>50.63932592275209</v>
+        <v>50.63932592275208</v>
       </c>
       <c r="J24" t="n">
-        <v>50.63932592275209</v>
+        <v>137.5067023934301</v>
       </c>
       <c r="K24" t="n">
-        <v>50.63932592275209</v>
+        <v>412.483503809827</v>
       </c>
       <c r="L24" t="n">
-        <v>477.6230460317979</v>
+        <v>412.483503809827</v>
       </c>
       <c r="M24" t="n">
-        <v>1034.029422776485</v>
+        <v>968.8898805545145</v>
       </c>
       <c r="N24" t="n">
-        <v>1618.557123682026</v>
+        <v>1553.417581460055</v>
       </c>
       <c r="O24" t="n">
-        <v>2077.777541687914</v>
+        <v>2012.637999465944</v>
       </c>
       <c r="P24" t="n">
-        <v>2433.663294537819</v>
+        <v>2338.23758710299</v>
       </c>
       <c r="Q24" t="n">
         <v>2531.966296137603</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.75943135889224</v>
+        <v>69.7837024312265</v>
       </c>
       <c r="C25" t="n">
-        <v>51.73079232192107</v>
+        <v>51.73079232192101</v>
       </c>
       <c r="D25" t="n">
-        <v>51.73079232192107</v>
+        <v>51.73079232192101</v>
       </c>
       <c r="E25" t="n">
-        <v>51.73079232192107</v>
+        <v>51.73079232192101</v>
       </c>
       <c r="F25" t="n">
-        <v>51.73079232192107</v>
+        <v>51.73079232192101</v>
       </c>
       <c r="G25" t="n">
-        <v>50.63932592275209</v>
+        <v>50.63932592275208</v>
       </c>
       <c r="H25" t="n">
-        <v>50.63932592275209</v>
+        <v>50.63932592275208</v>
       </c>
       <c r="I25" t="n">
-        <v>50.63932592275209</v>
+        <v>50.63932592275208</v>
       </c>
       <c r="J25" t="n">
-        <v>50.63932592275209</v>
+        <v>50.63932592275208</v>
       </c>
       <c r="K25" t="n">
         <v>111.680639158038</v>
@@ -6169,28 +6169,28 @@
         <v>780.3446311780378</v>
       </c>
       <c r="R25" t="n">
-        <v>780.3446311780378</v>
+        <v>641.6569158347268</v>
       </c>
       <c r="S25" t="n">
-        <v>583.7093442086966</v>
+        <v>599.7336152810306</v>
       </c>
       <c r="T25" t="n">
-        <v>519.147242560881</v>
+        <v>535.1715136332149</v>
       </c>
       <c r="U25" t="n">
-        <v>399.5574763730548</v>
+        <v>415.5817474453888</v>
       </c>
       <c r="V25" t="n">
-        <v>306.4095024328259</v>
+        <v>322.43377350516</v>
       </c>
       <c r="W25" t="n">
-        <v>187.8404314515736</v>
+        <v>203.8647025239077</v>
       </c>
       <c r="X25" t="n">
-        <v>124.1752978482979</v>
+        <v>140.199568920632</v>
       </c>
       <c r="Y25" t="n">
-        <v>69.72746954192351</v>
+        <v>85.75174061425773</v>
       </c>
     </row>
     <row r="26">
@@ -6209,19 +6209,19 @@
         <v>1255.431238623051</v>
       </c>
       <c r="E26" t="n">
-        <v>964.3232175417855</v>
+        <v>964.3232175417852</v>
       </c>
       <c r="F26" t="n">
-        <v>653.8497256645833</v>
+        <v>653.849725664583</v>
       </c>
       <c r="G26" t="n">
-        <v>341.9605984843305</v>
+        <v>341.9605984843297</v>
       </c>
       <c r="H26" t="n">
-        <v>118.3182184069742</v>
+        <v>118.3182184069737</v>
       </c>
       <c r="I26" t="n">
-        <v>69.88760064527841</v>
+        <v>69.88760064527843</v>
       </c>
       <c r="J26" t="n">
         <v>288.1842304771471</v>
@@ -6233,13 +6233,13 @@
         <v>1229.489175128238</v>
       </c>
       <c r="M26" t="n">
-        <v>1816.786565137962</v>
+        <v>1720.941877758825</v>
       </c>
       <c r="N26" t="n">
-        <v>2390.671983475651</v>
+        <v>2294.827296096514</v>
       </c>
       <c r="O26" t="n">
-        <v>2885.995531016188</v>
+        <v>2790.150843637051</v>
       </c>
       <c r="P26" t="n">
         <v>3195.629448918213</v>
@@ -6248,7 +6248,7 @@
         <v>3448.529166667816</v>
       </c>
       <c r="R26" t="n">
-        <v>3494.38003226392</v>
+        <v>3494.380032263921</v>
       </c>
       <c r="S26" t="n">
         <v>3423.069301806822</v>
@@ -6291,37 +6291,37 @@
         <v>488.6715498511335</v>
       </c>
       <c r="F27" t="n">
-        <v>353.9777518010078</v>
+        <v>353.9777518010079</v>
       </c>
       <c r="G27" t="n">
-        <v>225.5366580578725</v>
+        <v>225.5366580578726</v>
       </c>
       <c r="H27" t="n">
         <v>128.3745397551997</v>
       </c>
       <c r="I27" t="n">
-        <v>69.88760064527841</v>
+        <v>69.88760064527843</v>
       </c>
       <c r="J27" t="n">
-        <v>69.88760064527841</v>
+        <v>156.7549771159564</v>
       </c>
       <c r="K27" t="n">
-        <v>344.8644020616754</v>
+        <v>431.7317785323534</v>
       </c>
       <c r="L27" t="n">
-        <v>771.8481221707211</v>
+        <v>858.7154986413991</v>
       </c>
       <c r="M27" t="n">
-        <v>1151.580699098795</v>
+        <v>1313.737742914088</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.108400004336</v>
+        <v>1898.265443819628</v>
       </c>
       <c r="O27" t="n">
-        <v>2195.328818010224</v>
+        <v>2357.485861825517</v>
       </c>
       <c r="P27" t="n">
-        <v>2551.214570860129</v>
+        <v>2357.485861825517</v>
       </c>
       <c r="Q27" t="n">
         <v>2551.214570860129</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.1873717463962</v>
+        <v>434.1873717463959</v>
       </c>
       <c r="C28" t="n">
-        <v>368.249101020704</v>
+        <v>368.2491010207037</v>
       </c>
       <c r="D28" t="n">
-        <v>318.8549066610943</v>
+        <v>318.854906661094</v>
       </c>
       <c r="E28" t="n">
-        <v>270.5235912350406</v>
+        <v>270.5235912350403</v>
       </c>
       <c r="F28" t="n">
-        <v>221.7206350734452</v>
+        <v>221.7206350734449</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7195369855552</v>
+        <v>156.7195369855549</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1668705186979</v>
+        <v>103.1668705186976</v>
       </c>
       <c r="I28" t="n">
-        <v>69.88760064527841</v>
+        <v>69.88760064527843</v>
       </c>
       <c r="J28" t="n">
-        <v>129.3362989201951</v>
+        <v>129.336298920195</v>
       </c>
       <c r="K28" t="n">
-        <v>291.9921247617373</v>
+        <v>291.9921247617368</v>
       </c>
       <c r="L28" t="n">
-        <v>529.3237911245885</v>
+        <v>529.3237911245881</v>
       </c>
       <c r="M28" t="n">
-        <v>785.9504604715253</v>
+        <v>785.9504604715249</v>
       </c>
       <c r="N28" t="n">
-        <v>1042.125744669635</v>
+        <v>1042.125744669634</v>
       </c>
       <c r="O28" t="n">
-        <v>1275.583592905267</v>
+        <v>1275.583592905266</v>
       </c>
       <c r="P28" t="n">
         <v>1468.728679813018</v>
       </c>
       <c r="Q28" t="n">
-        <v>1552.347655190349</v>
+        <v>1552.347655190348</v>
       </c>
       <c r="R28" t="n">
         <v>1517.337638659665</v>
       </c>
       <c r="S28" t="n">
-        <v>1411.504706417248</v>
+        <v>1411.504706417247</v>
       </c>
       <c r="T28" t="n">
-        <v>1283.032973080711</v>
+        <v>1283.03297308071</v>
       </c>
       <c r="U28" t="n">
         <v>1099.533575204164</v>
       </c>
       <c r="V28" t="n">
-        <v>942.4759695752139</v>
+        <v>942.4759695752136</v>
       </c>
       <c r="W28" t="n">
-        <v>759.9972669052405</v>
+        <v>759.9972669052403</v>
       </c>
       <c r="X28" t="n">
-        <v>632.4225016132438</v>
+        <v>632.4225016132435</v>
       </c>
       <c r="Y28" t="n">
-        <v>514.0650416181485</v>
+        <v>514.0650416181483</v>
       </c>
     </row>
     <row r="29">
@@ -6446,22 +6446,22 @@
         <v>1255.431238623051</v>
       </c>
       <c r="E29" t="n">
-        <v>964.3232175417857</v>
+        <v>964.3232175417861</v>
       </c>
       <c r="F29" t="n">
-        <v>653.8497256645835</v>
+        <v>653.8497256645841</v>
       </c>
       <c r="G29" t="n">
-        <v>341.9605984843301</v>
+        <v>341.9605984843307</v>
       </c>
       <c r="H29" t="n">
         <v>118.3182184069741</v>
       </c>
       <c r="I29" t="n">
-        <v>69.88760064527841</v>
+        <v>69.88760064527843</v>
       </c>
       <c r="J29" t="n">
-        <v>288.1842304771471</v>
+        <v>288.1842304771472</v>
       </c>
       <c r="K29" t="n">
         <v>696.9082079630805</v>
@@ -6476,7 +6476,7 @@
         <v>2390.671983475651</v>
       </c>
       <c r="O29" t="n">
-        <v>2790.150843637051</v>
+        <v>2885.995531016189</v>
       </c>
       <c r="P29" t="n">
         <v>3195.629448918213</v>
@@ -6485,7 +6485,7 @@
         <v>3448.529166667816</v>
       </c>
       <c r="R29" t="n">
-        <v>3494.38003226392</v>
+        <v>3494.380032263921</v>
       </c>
       <c r="S29" t="n">
         <v>3423.069301806822</v>
@@ -6494,7 +6494,7 @@
         <v>3304.739474670917</v>
       </c>
       <c r="U29" t="n">
-        <v>3153.574810041773</v>
+        <v>3153.574810041774</v>
       </c>
       <c r="V29" t="n">
         <v>2920.273234750342</v>
@@ -6537,28 +6537,28 @@
         <v>128.3745397551997</v>
       </c>
       <c r="I30" t="n">
-        <v>69.88760064527841</v>
+        <v>69.88760064527843</v>
       </c>
       <c r="J30" t="n">
-        <v>156.7549771159564</v>
+        <v>69.88760064527843</v>
       </c>
       <c r="K30" t="n">
-        <v>431.7317785323534</v>
+        <v>344.8644020616754</v>
       </c>
       <c r="L30" t="n">
-        <v>858.7154986413991</v>
+        <v>771.8481221707214</v>
       </c>
       <c r="M30" t="n">
-        <v>957.851990064183</v>
+        <v>1328.254498915409</v>
       </c>
       <c r="N30" t="n">
-        <v>1542.379690969723</v>
+        <v>1912.782199820949</v>
       </c>
       <c r="O30" t="n">
-        <v>2001.600108975612</v>
+        <v>2372.002617826839</v>
       </c>
       <c r="P30" t="n">
-        <v>2357.485861825517</v>
+        <v>2372.002617826839</v>
       </c>
       <c r="Q30" t="n">
         <v>2551.214570860129</v>
@@ -6598,43 +6598,43 @@
         <v>434.1873717463961</v>
       </c>
       <c r="C31" t="n">
-        <v>368.2491010207039</v>
+        <v>368.249101020704</v>
       </c>
       <c r="D31" t="n">
         <v>318.8549066610942</v>
       </c>
       <c r="E31" t="n">
-        <v>270.5235912350405</v>
+        <v>270.5235912350406</v>
       </c>
       <c r="F31" t="n">
-        <v>221.7206350734451</v>
+        <v>221.7206350734452</v>
       </c>
       <c r="G31" t="n">
-        <v>156.7195369855551</v>
+        <v>156.7195369855552</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1668705186978</v>
+        <v>103.1668705186979</v>
       </c>
       <c r="I31" t="n">
-        <v>69.88760064527841</v>
+        <v>69.88760064527843</v>
       </c>
       <c r="J31" t="n">
-        <v>129.3362989201948</v>
+        <v>129.3362989201951</v>
       </c>
       <c r="K31" t="n">
-        <v>291.9921247617371</v>
+        <v>291.9921247617372</v>
       </c>
       <c r="L31" t="n">
-        <v>529.3237911245884</v>
+        <v>529.3237911245885</v>
       </c>
       <c r="M31" t="n">
-        <v>785.9504604715253</v>
+        <v>785.9504604715255</v>
       </c>
       <c r="N31" t="n">
-        <v>1042.125744669634</v>
+        <v>1042.125744669635</v>
       </c>
       <c r="O31" t="n">
-        <v>1275.583592905266</v>
+        <v>1275.583592905267</v>
       </c>
       <c r="P31" t="n">
         <v>1468.728679813018</v>
@@ -6643,7 +6643,7 @@
         <v>1552.347655190349</v>
       </c>
       <c r="R31" t="n">
-        <v>1517.337638659665</v>
+        <v>1517.337638659666</v>
       </c>
       <c r="S31" t="n">
         <v>1411.504706417248</v>
@@ -6655,16 +6655,16 @@
         <v>1099.533575204164</v>
       </c>
       <c r="V31" t="n">
-        <v>942.4759695752139</v>
+        <v>942.4759695752141</v>
       </c>
       <c r="W31" t="n">
-        <v>759.9972669052405</v>
+        <v>759.9972669052407</v>
       </c>
       <c r="X31" t="n">
-        <v>632.4225016132438</v>
+        <v>632.422501613244</v>
       </c>
       <c r="Y31" t="n">
-        <v>514.0650416181484</v>
+        <v>514.0650416181485</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1783.721751081554</v>
+        <v>1783.721751081556</v>
       </c>
       <c r="C32" t="n">
-        <v>1508.081553948929</v>
+        <v>1508.08155394893</v>
       </c>
       <c r="D32" t="n">
-        <v>1241.551150710719</v>
+        <v>1241.551150710721</v>
       </c>
       <c r="E32" t="n">
-        <v>953.0589923513933</v>
+        <v>953.0589923513944</v>
       </c>
       <c r="F32" t="n">
-        <v>645.2013631961305</v>
+        <v>645.2013631961313</v>
       </c>
       <c r="G32" t="n">
-        <v>335.9280987378165</v>
+        <v>335.9280987378179</v>
       </c>
       <c r="H32" t="n">
-        <v>114.9015813824003</v>
+        <v>114.9015813824002</v>
       </c>
       <c r="I32" t="n">
         <v>69.0868263426439</v>
       </c>
       <c r="J32" t="n">
-        <v>289.9472632282854</v>
+        <v>289.9472632282855</v>
       </c>
       <c r="K32" t="n">
-        <v>701.2350477679914</v>
+        <v>701.2350477679917</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.379821986921</v>
+        <v>1236.379821986922</v>
       </c>
       <c r="M32" t="n">
-        <v>1826.241019050418</v>
+        <v>1772.262447018264</v>
       </c>
       <c r="N32" t="n">
-        <v>2402.69024444188</v>
+        <v>2348.711672409726</v>
       </c>
       <c r="O32" t="n">
-        <v>2846.599027004036</v>
+        <v>2846.599027004037</v>
       </c>
       <c r="P32" t="n">
-        <v>3150.463119678941</v>
+        <v>3150.463119678942</v>
       </c>
       <c r="Q32" t="n">
-        <v>3405.926644482317</v>
+        <v>3405.926644482318</v>
       </c>
       <c r="R32" t="n">
         <v>3454.341317132195</v>
       </c>
       <c r="S32" t="n">
-        <v>3385.646449397036</v>
+        <v>3385.646449397037</v>
       </c>
       <c r="T32" t="n">
-        <v>3269.93248498307</v>
+        <v>3269.932484983071</v>
       </c>
       <c r="U32" t="n">
         <v>3121.383683075866</v>
       </c>
       <c r="V32" t="n">
-        <v>2890.697970506374</v>
+        <v>2890.697970506375</v>
       </c>
       <c r="W32" t="n">
         <v>2634.456601898542</v>
       </c>
       <c r="X32" t="n">
-        <v>2358.720022954602</v>
+        <v>2358.720022954603</v>
       </c>
       <c r="Y32" t="n">
-        <v>2071.471729065006</v>
+        <v>2071.471729065008</v>
       </c>
     </row>
     <row r="33">
@@ -6780,10 +6780,10 @@
         <v>155.9542028133219</v>
       </c>
       <c r="K33" t="n">
-        <v>430.9310042297188</v>
+        <v>155.9542028133219</v>
       </c>
       <c r="L33" t="n">
-        <v>857.9147243387647</v>
+        <v>582.9379229223678</v>
       </c>
       <c r="M33" t="n">
         <v>957.0512157615484</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>415.075558390186</v>
+        <v>415.0755583901854</v>
       </c>
       <c r="C34" t="n">
-        <v>351.7531503864332</v>
+        <v>351.7531503864327</v>
       </c>
       <c r="D34" t="n">
-        <v>304.9748187487629</v>
+        <v>304.9748187487623</v>
       </c>
       <c r="E34" t="n">
-        <v>259.2593660446486</v>
+        <v>259.2593660446482</v>
       </c>
       <c r="F34" t="n">
-        <v>213.0722726049925</v>
+        <v>213.0722726049923</v>
       </c>
       <c r="G34" t="n">
-        <v>150.6870372390419</v>
+        <v>150.6870372390417</v>
       </c>
       <c r="H34" t="n">
-        <v>99.75023349412398</v>
+        <v>99.75023349412388</v>
       </c>
       <c r="I34" t="n">
         <v>69.0868263426439</v>
@@ -6859,49 +6859,49 @@
         <v>131.0993316713333</v>
       </c>
       <c r="K34" t="n">
-        <v>233.9547045854361</v>
+        <v>296.3189645666484</v>
       </c>
       <c r="L34" t="n">
-        <v>473.8501780020601</v>
+        <v>536.2144379832725</v>
       </c>
       <c r="M34" t="n">
-        <v>733.0406544027699</v>
+        <v>795.4049143839824</v>
       </c>
       <c r="N34" t="n">
-        <v>991.7797456546517</v>
+        <v>1054.144005635864</v>
       </c>
       <c r="O34" t="n">
-        <v>1227.801400944057</v>
+        <v>1227.801400944055</v>
       </c>
       <c r="P34" t="n">
-        <v>1423.510294905581</v>
+        <v>1423.510294905579</v>
       </c>
       <c r="Q34" t="n">
-        <v>1509.693077336684</v>
+        <v>1509.693077336683</v>
       </c>
       <c r="R34" t="n">
-        <v>1477.29892352794</v>
+        <v>1477.298923527939</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.081854007462</v>
+        <v>1374.081854007461</v>
       </c>
       <c r="T34" t="n">
-        <v>1248.225983392865</v>
+        <v>1248.225983392864</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.342448238257</v>
+        <v>1067.342448238256</v>
       </c>
       <c r="V34" t="n">
-        <v>912.9007053312463</v>
+        <v>912.9007053312455</v>
       </c>
       <c r="W34" t="n">
-        <v>733.0378653832123</v>
+        <v>733.0378653832115</v>
       </c>
       <c r="X34" t="n">
-        <v>608.0789628131549</v>
+        <v>608.0789628131542</v>
       </c>
       <c r="Y34" t="n">
-        <v>492.3373655399989</v>
+        <v>492.3373655399982</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1432.622392258136</v>
+        <v>1432.622392258137</v>
       </c>
       <c r="C35" t="n">
-        <v>1205.401451068237</v>
+        <v>1205.401451068238</v>
       </c>
       <c r="D35" t="n">
-        <v>987.290303772754</v>
+        <v>987.2903037727544</v>
       </c>
       <c r="E35" t="n">
-        <v>747.2174013561541</v>
+        <v>747.2174013561546</v>
       </c>
       <c r="F35" t="n">
-        <v>487.7790281436179</v>
+        <v>487.7790281436182</v>
       </c>
       <c r="G35" t="n">
         <v>226.9250196280299</v>
@@ -6944,10 +6944,10 @@
         <v>909.0757948795299</v>
       </c>
       <c r="M35" t="n">
-        <v>1394.758672282999</v>
+        <v>1394.758672282998</v>
       </c>
       <c r="N35" t="n">
-        <v>1867.029578014432</v>
+        <v>1867.029578014431</v>
       </c>
       <c r="O35" t="n">
         <v>2260.738612948713</v>
@@ -6968,19 +6968,19 @@
         <v>2628.317590503294</v>
       </c>
       <c r="U35" t="n">
-        <v>2528.188044538815</v>
+        <v>2528.188044538816</v>
       </c>
       <c r="V35" t="n">
         <v>2345.92158791205</v>
       </c>
       <c r="W35" t="n">
-        <v>2138.099475246944</v>
+        <v>2138.099475246945</v>
       </c>
       <c r="X35" t="n">
         <v>1910.782152245731</v>
       </c>
       <c r="Y35" t="n">
-        <v>1671.953114298862</v>
+        <v>1671.953114298863</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>54.31775821533931</v>
       </c>
       <c r="J36" t="n">
-        <v>54.31775821533931</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="K36" t="n">
-        <v>54.31775821533931</v>
+        <v>416.1619361024142</v>
       </c>
       <c r="L36" t="n">
-        <v>481.3014783243851</v>
+        <v>843.1456562114601</v>
       </c>
       <c r="M36" t="n">
-        <v>1037.707855069073</v>
+        <v>1399.552032956148</v>
       </c>
       <c r="N36" t="n">
-        <v>1622.235555974613</v>
+        <v>1526.809848539784</v>
       </c>
       <c r="O36" t="n">
-        <v>2081.455973980502</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P36" t="n">
-        <v>2437.341726830407</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q36" t="n">
         <v>2535.64472843019</v>
@@ -7120,7 +7120,7 @@
         <v>784.0230634706251</v>
       </c>
       <c r="S37" t="n">
-        <v>705.7759415199721</v>
+        <v>729.2252498928735</v>
       </c>
       <c r="T37" t="n">
         <v>628.3393268481011</v>
@@ -7154,22 +7154,22 @@
         <v>1205.401451068237</v>
       </c>
       <c r="D38" t="n">
-        <v>987.2903037727535</v>
+        <v>987.2903037727538</v>
       </c>
       <c r="E38" t="n">
-        <v>747.2174013561537</v>
+        <v>747.2174013561539</v>
       </c>
       <c r="F38" t="n">
-        <v>487.7790281436173</v>
+        <v>487.7790281436176</v>
       </c>
       <c r="G38" t="n">
         <v>226.9250196280299</v>
       </c>
       <c r="H38" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I38" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J38" t="n">
         <v>170.9998754409518</v>
@@ -7193,13 +7193,13 @@
         <v>2564.602705623617</v>
       </c>
       <c r="Q38" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="R38" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="S38" t="n">
-        <v>2695.612298974531</v>
+        <v>2695.612298974532</v>
       </c>
       <c r="T38" t="n">
         <v>2628.317590503293</v>
@@ -7208,13 +7208,13 @@
         <v>2528.188044538815</v>
       </c>
       <c r="V38" t="n">
-        <v>2345.921587912049</v>
+        <v>2345.92158791205</v>
       </c>
       <c r="W38" t="n">
         <v>2138.099475246944</v>
       </c>
       <c r="X38" t="n">
-        <v>1910.78215224573</v>
+        <v>1910.782152245731</v>
       </c>
       <c r="Y38" t="n">
         <v>1671.953114298862</v>
@@ -7248,16 +7248,16 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I39" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J39" t="n">
         <v>141.1851346860173</v>
       </c>
       <c r="K39" t="n">
-        <v>416.1619361024142</v>
+        <v>141.1851346860173</v>
       </c>
       <c r="L39" t="n">
-        <v>843.1456562114599</v>
+        <v>568.1688547950631</v>
       </c>
       <c r="M39" t="n">
         <v>942.2821476342436</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85.70443750178127</v>
+        <v>85.70443750178129</v>
       </c>
       <c r="C40" t="n">
-        <v>70.80128544075491</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="D40" t="n">
-        <v>70.80128544075491</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="E40" t="n">
-        <v>70.80128544075491</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="F40" t="n">
-        <v>70.80128544075491</v>
+        <v>70.80128544075492</v>
       </c>
       <c r="G40" t="n">
-        <v>56.83530601753073</v>
+        <v>56.83530601753074</v>
       </c>
       <c r="H40" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I40" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J40" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="K40" t="n">
         <v>115.3590714506253</v>
@@ -7339,7 +7339,7 @@
         <v>251.0762252072203</v>
       </c>
       <c r="M40" t="n">
-        <v>406.088381947901</v>
+        <v>406.0883819479011</v>
       </c>
       <c r="N40" t="n">
         <v>560.6491535397539</v>
@@ -7354,7 +7354,7 @@
         <v>784.0230634706251</v>
       </c>
       <c r="R40" t="n">
-        <v>784.0230634706251</v>
+        <v>760.5737550977236</v>
       </c>
       <c r="S40" t="n">
         <v>705.7759415199721</v>
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1578.147823947087</v>
+        <v>1263.331040724513</v>
       </c>
       <c r="C41" t="n">
-        <v>1329.765463815484</v>
+        <v>1014.948680592911</v>
       </c>
       <c r="D41" t="n">
-        <v>1090.492897578298</v>
+        <v>775.6761143557242</v>
       </c>
       <c r="E41" t="n">
-        <v>829.2585762199953</v>
+        <v>775.6761143557242</v>
       </c>
       <c r="F41" t="n">
-        <v>548.6587840657561</v>
+        <v>495.0763222014849</v>
       </c>
       <c r="G41" t="n">
-        <v>266.6433566084658</v>
+        <v>248.0864385697328</v>
       </c>
       <c r="H41" t="n">
-        <v>72.87467625407218</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I41" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J41" t="n">
-        <v>170.9998754409517</v>
+        <v>170.9998754409518</v>
       </c>
       <c r="K41" t="n">
-        <v>478.1093403206285</v>
+        <v>478.1093403206289</v>
       </c>
       <c r="L41" t="n">
-        <v>909.0757948795294</v>
+        <v>909.0757948795301</v>
       </c>
       <c r="M41" t="n">
-        <v>1394.758672282997</v>
+        <v>1394.758672282998</v>
       </c>
       <c r="N41" t="n">
-        <v>1867.02957801443</v>
+        <v>1867.029578014431</v>
       </c>
       <c r="O41" t="n">
-        <v>2260.738612948711</v>
+        <v>2260.738612948712</v>
       </c>
       <c r="P41" t="n">
-        <v>2564.602705623617</v>
+        <v>2564.602705623618</v>
       </c>
       <c r="Q41" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="R41" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="S41" t="n">
         <v>2674.450880032829</v>
@@ -7442,19 +7442,19 @@
         <v>2585.994752619887</v>
       </c>
       <c r="U41" t="n">
-        <v>2464.703787713705</v>
+        <v>2464.703787713706</v>
       </c>
       <c r="V41" t="n">
-        <v>2464.703787713705</v>
+        <v>2261.275912145238</v>
       </c>
       <c r="W41" t="n">
-        <v>2347.109163761003</v>
+        <v>2032.29238053843</v>
       </c>
       <c r="X41" t="n">
-        <v>2098.630421818087</v>
+        <v>1783.813638595513</v>
       </c>
       <c r="Y41" t="n">
-        <v>1838.639964929515</v>
+        <v>1523.823181706942</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I42" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J42" t="n">
         <v>141.1851346860173</v>
@@ -7494,10 +7494,10 @@
         <v>416.1619361024142</v>
       </c>
       <c r="L42" t="n">
-        <v>843.1456562114599</v>
+        <v>416.1619361024142</v>
       </c>
       <c r="M42" t="n">
-        <v>1399.552032956147</v>
+        <v>972.5683128471017</v>
       </c>
       <c r="N42" t="n">
         <v>1526.809848539784</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>209.5016312557171</v>
+        <v>209.5016312557165</v>
       </c>
       <c r="C43" t="n">
-        <v>173.4370602529877</v>
+        <v>173.4370602529872</v>
       </c>
       <c r="D43" t="n">
-        <v>153.9165656163408</v>
+        <v>153.9165656163404</v>
       </c>
       <c r="E43" t="n">
-        <v>135.45894991325</v>
+        <v>135.4589499132497</v>
       </c>
       <c r="F43" t="n">
-        <v>116.5296934746175</v>
+        <v>116.5296934746172</v>
       </c>
       <c r="G43" t="n">
-        <v>81.40229510969031</v>
+        <v>81.40229510969016</v>
       </c>
       <c r="H43" t="n">
-        <v>57.72332836579588</v>
+        <v>57.7233283657958</v>
       </c>
       <c r="I43" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J43" t="n">
-        <v>143.0456695887318</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="K43" t="n">
-        <v>204.0869828240177</v>
+        <v>115.3590714506253</v>
       </c>
       <c r="L43" t="n">
-        <v>339.8041365806128</v>
+        <v>251.0762252072203</v>
       </c>
       <c r="M43" t="n">
-        <v>494.8162933212935</v>
+        <v>536.9821076526333</v>
       </c>
       <c r="N43" t="n">
-        <v>649.3770649131463</v>
+        <v>691.5428792444861</v>
       </c>
       <c r="O43" t="n">
-        <v>912.1141262472545</v>
+        <v>836.3743171867754</v>
       </c>
       <c r="P43" t="n">
-        <v>1003.64470054875</v>
+        <v>1058.798617193003</v>
       </c>
       <c r="Q43" t="n">
-        <v>1058.798617193004</v>
+        <v>1058.798617193003</v>
       </c>
       <c r="R43" t="n">
-        <v>1053.662300385283</v>
+        <v>1053.662300385282</v>
       </c>
       <c r="S43" t="n">
-        <v>977.7030678658288</v>
+        <v>977.7030678658277</v>
       </c>
       <c r="T43" t="n">
-        <v>879.1050342522549</v>
+        <v>879.1050342522539</v>
       </c>
       <c r="U43" t="n">
-        <v>725.4793360986705</v>
+        <v>725.4793360986696</v>
       </c>
       <c r="V43" t="n">
-        <v>598.2954301926835</v>
+        <v>598.2954301926826</v>
       </c>
       <c r="W43" t="n">
-        <v>445.6904272456729</v>
+        <v>445.6904272456721</v>
       </c>
       <c r="X43" t="n">
-        <v>347.9893616766391</v>
+        <v>347.9893616766383</v>
       </c>
       <c r="Y43" t="n">
-        <v>259.5056014045065</v>
+        <v>259.5056014045059</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1578.147823947087</v>
+        <v>1263.331040724512</v>
       </c>
       <c r="C44" t="n">
-        <v>1329.765463815484</v>
+        <v>1014.94868059291</v>
       </c>
       <c r="D44" t="n">
-        <v>1090.492897578298</v>
+        <v>775.6761143557239</v>
       </c>
       <c r="E44" t="n">
-        <v>829.2585762199953</v>
+        <v>514.4417929974213</v>
       </c>
       <c r="F44" t="n">
-        <v>548.6587840657561</v>
+        <v>248.0864385697328</v>
       </c>
       <c r="G44" t="n">
-        <v>266.6433566084656</v>
+        <v>248.0864385697328</v>
       </c>
       <c r="H44" t="n">
-        <v>72.87467625407214</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="I44" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J44" t="n">
         <v>170.9998754409518</v>
       </c>
       <c r="K44" t="n">
-        <v>478.1093403206284</v>
+        <v>478.1093403206289</v>
       </c>
       <c r="L44" t="n">
-        <v>909.0757948795294</v>
+        <v>909.0757948795303</v>
       </c>
       <c r="M44" t="n">
-        <v>1394.758672282997</v>
+        <v>1394.758672282998</v>
       </c>
       <c r="N44" t="n">
-        <v>1867.02957801443</v>
+        <v>1867.029578014431</v>
       </c>
       <c r="O44" t="n">
-        <v>2260.738612948711</v>
+        <v>2260.738612948712</v>
       </c>
       <c r="P44" t="n">
-        <v>2564.602705623617</v>
+        <v>2564.602705623618</v>
       </c>
       <c r="Q44" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="R44" t="n">
-        <v>2715.887910766964</v>
+        <v>2715.887910766965</v>
       </c>
       <c r="S44" t="n">
         <v>2674.450880032829</v>
@@ -7679,19 +7679,19 @@
         <v>2585.994752619887</v>
       </c>
       <c r="U44" t="n">
-        <v>2464.703787713705</v>
+        <v>2464.703787713706</v>
       </c>
       <c r="V44" t="n">
-        <v>2464.703787713705</v>
+        <v>2261.275912145237</v>
       </c>
       <c r="W44" t="n">
-        <v>2235.720256106897</v>
+        <v>2032.292380538429</v>
       </c>
       <c r="X44" t="n">
-        <v>1987.24151416398</v>
+        <v>1783.813638595513</v>
       </c>
       <c r="Y44" t="n">
-        <v>1838.639964929515</v>
+        <v>1523.823181706941</v>
       </c>
     </row>
     <row r="45">
@@ -7722,10 +7722,10 @@
         <v>112.8046973252606</v>
       </c>
       <c r="I45" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J45" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="K45" t="n">
         <v>329.2945596317362</v>
@@ -7734,16 +7734,16 @@
         <v>756.278279740782</v>
       </c>
       <c r="M45" t="n">
-        <v>1312.68465648547</v>
+        <v>942.2821476342436</v>
       </c>
       <c r="N45" t="n">
-        <v>1897.21235739101</v>
+        <v>1526.809848539784</v>
       </c>
       <c r="O45" t="n">
-        <v>2356.432775396899</v>
+        <v>1986.030266545673</v>
       </c>
       <c r="P45" t="n">
-        <v>2535.64472843019</v>
+        <v>2341.916019395578</v>
       </c>
       <c r="Q45" t="n">
         <v>2535.64472843019</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>209.5016312557169</v>
+        <v>209.5016312557165</v>
       </c>
       <c r="C46" t="n">
-        <v>173.4370602529875</v>
+        <v>173.4370602529872</v>
       </c>
       <c r="D46" t="n">
-        <v>153.9165656163407</v>
+        <v>153.9165656163404</v>
       </c>
       <c r="E46" t="n">
-        <v>135.4589499132499</v>
+        <v>135.4589499132497</v>
       </c>
       <c r="F46" t="n">
-        <v>116.5296934746174</v>
+        <v>116.5296934746172</v>
       </c>
       <c r="G46" t="n">
-        <v>81.40229510969026</v>
+        <v>81.40229510969016</v>
       </c>
       <c r="H46" t="n">
-        <v>57.72332836579585</v>
+        <v>57.7233283657958</v>
       </c>
       <c r="I46" t="n">
-        <v>54.31775821533928</v>
+        <v>54.31775821533929</v>
       </c>
       <c r="J46" t="n">
-        <v>54.31775821533928</v>
+        <v>85.30139775717834</v>
       </c>
       <c r="K46" t="n">
-        <v>115.3590714506253</v>
+        <v>146.3427109924643</v>
       </c>
       <c r="L46" t="n">
-        <v>251.0762252072203</v>
+        <v>282.0598647490594</v>
       </c>
       <c r="M46" t="n">
-        <v>536.9821076526332</v>
+        <v>437.0720214897401</v>
       </c>
       <c r="N46" t="n">
-        <v>822.4366049492182</v>
+        <v>591.6327930815929</v>
       </c>
       <c r="O46" t="n">
-        <v>954.2799405785942</v>
+        <v>854.3698544157011</v>
       </c>
       <c r="P46" t="n">
-        <v>1045.810514880089</v>
+        <v>945.9004287171963</v>
       </c>
       <c r="Q46" t="n">
-        <v>1058.798617193004</v>
+        <v>1058.798617193003</v>
       </c>
       <c r="R46" t="n">
-        <v>1053.662300385283</v>
+        <v>1053.662300385282</v>
       </c>
       <c r="S46" t="n">
-        <v>977.7030678658283</v>
+        <v>977.7030678658277</v>
       </c>
       <c r="T46" t="n">
-        <v>879.1050342522544</v>
+        <v>879.1050342522539</v>
       </c>
       <c r="U46" t="n">
-        <v>725.4793360986702</v>
+        <v>725.4793360986696</v>
       </c>
       <c r="V46" t="n">
-        <v>598.2954301926832</v>
+        <v>598.2954301926826</v>
       </c>
       <c r="W46" t="n">
-        <v>445.6904272456727</v>
+        <v>445.6904272456721</v>
       </c>
       <c r="X46" t="n">
-        <v>347.9893616766389</v>
+        <v>347.9893616766383</v>
       </c>
       <c r="Y46" t="n">
-        <v>259.5056014045063</v>
+        <v>259.5056014045059</v>
       </c>
     </row>
   </sheetData>
@@ -8456,16 +8456,16 @@
         <v>188.8326827569781</v>
       </c>
       <c r="L8" t="n">
-        <v>201.569890946046</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
-        <v>196.7615618141134</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3981141722301</v>
+        <v>196.4077929551615</v>
       </c>
       <c r="O8" t="n">
-        <v>186.9547967801205</v>
+        <v>196.5600440970748</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
@@ -8532,25 +8532,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>121.601416483621</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>122.1806808881021</v>
       </c>
       <c r="M9" t="n">
-        <v>125.4935813445713</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>106.7151410677083</v>
+        <v>116.7248198506397</v>
       </c>
       <c r="O9" t="n">
-        <v>115.8594486111111</v>
+        <v>125.8691273940425</v>
       </c>
       <c r="P9" t="n">
         <v>118.8638848070747</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.7448702278239</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8611,22 +8611,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>114.8329510464913</v>
       </c>
       <c r="L10" t="n">
         <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>122.8868782403605</v>
+        <v>122.4824467743834</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7541836609333</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
         <v>122.5056162750536</v>
       </c>
       <c r="P10" t="n">
-        <v>121.5092506068868</v>
+        <v>121.9136820728638</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8699,16 +8699,16 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N11" t="n">
-        <v>539.3005197220178</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>418.3383206229274</v>
+        <v>236.2745000807315</v>
       </c>
       <c r="Q11" t="n">
-        <v>123.1961493292429</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,13 +8766,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>76.17352122467497</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>66.05046325130485</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
-        <v>385.7028454249744</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
         <v>605.4165828749999</v>
@@ -8781,7 +8781,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>50.13224200732139</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -8924,10 +8924,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.9648752533802</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>421.3890363425141</v>
+        <v>392.138554328951</v>
       </c>
       <c r="L14" t="n">
         <v>542.9595789155856</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>211.8063917859958</v>
+        <v>123.1961493292427</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>76.17352122467493</v>
+        <v>76.1735212246749</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9012,7 +9012,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>231.2726345404282</v>
+        <v>231.2726345404278</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>101.9648752533802</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9179,7 +9179,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>354.1352245510474</v>
+        <v>236.2745000807315</v>
       </c>
       <c r="Q17" t="n">
         <v>276.0094878578761</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>76.17352122467493</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,10 +9249,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>231.2726345404282</v>
       </c>
       <c r="N18" t="n">
-        <v>161.2563135941912</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
@@ -9401,10 +9401,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>392.1385543289516</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>542.9595789155856</v>
+        <v>360.8957583733902</v>
       </c>
       <c r="M20" t="n">
         <v>584.3675935406823</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>123.1961493292428</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,19 +9477,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>76.17352122467493</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>107.9485005599253</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>161.2563135941912</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>101.9648752533802</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>421.3890363425141</v>
+        <v>239.3252158003187</v>
       </c>
       <c r="L23" t="n">
         <v>542.9595789155856</v>
@@ -9656,7 +9656,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q23" t="n">
-        <v>211.8063917859967</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9714,13 +9714,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>76.17352122467493</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>66.05046325130478</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>50.7957619156628</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -9732,10 +9732,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>383.4095131583243</v>
       </c>
       <c r="Q24" t="n">
-        <v>176.71087058708</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>76.17352122467494</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9960,7 +9960,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>426.9581992218553</v>
+        <v>503.0083682568194</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9969,10 +9969,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>54.52104079767114</v>
       </c>
       <c r="Q27" t="n">
-        <v>77.41490937517764</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>76.1735212246749</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10197,7 +10197,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>143.5278098225721</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
@@ -10206,10 +10206,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
-        <v>414.0015992319183</v>
+        <v>54.52104079767108</v>
       </c>
       <c r="Q30" t="n">
-        <v>273.1004740566038</v>
+        <v>258.4370841562793</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10428,13 +10428,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>66.05046325130478</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>143.5278098225719</v>
+        <v>421.2821546876193</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10592,13 +10592,13 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>584.3675935406836</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O35" t="n">
-        <v>495.0402356415689</v>
+        <v>495.0402356415702</v>
       </c>
       <c r="P35" t="n">
         <v>418.3383206229274</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>76.17352122467493</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K36" t="n">
-        <v>66.05046325130478</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>161.2563135941914</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>176.71087058708</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10838,10 +10838,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>418.3383206229272</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>276.0094878578765</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10902,13 +10902,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>66.05046325130478</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>143.5278098225719</v>
+        <v>421.2821546876192</v>
       </c>
       <c r="N39" t="n">
         <v>623.1450866466196</v>
@@ -11142,13 +11142,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>50.7957619156628</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>161.2563135941917</v>
+        <v>592.5530005730257</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11297,10 +11297,10 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>421.3890363425137</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155856</v>
+        <v>542.959578915586</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11382,7 +11382,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>231.2726345404284</v>
       </c>
       <c r="N45" t="n">
         <v>623.1450866466196</v>
@@ -11391,10 +11391,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>235.5432155787733</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>77.41490937517761</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.4621822983377</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>275.4734992560194</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>62.52455657986371</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.7702359084508</v>
       </c>
       <c r="H11" t="n">
-        <v>9.381387953571902</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>149.6530179828525</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>230.9685595385168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>256.2686590164737</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>286.9655150454191</v>
       </c>
     </row>
     <row r="12">
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>96.01580939064868</v>
+        <v>266.4548033005474</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>288.196940870453</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>308.7702359084508</v>
       </c>
       <c r="H14" t="n">
-        <v>221.4059562765828</v>
+        <v>70.31182671030194</v>
       </c>
       <c r="I14" t="n">
-        <v>47.94631158407875</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.5976231525274</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>117.1465288645458</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>149.6530179828525</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>230.9685595385168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.08952904662874e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -24455,13 +24455,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -25634,19 +25634,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>258.6219781447197</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>34.67528838728282</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>18.37134885834548</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,10 +25685,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>201.3935968127836</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>110.2750185775662</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25874,16 +25874,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>14.10199334928552</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>279.1952731827175</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.37134885834547</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>201.3935968127836</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>110.2750185775662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740895.4040040866</v>
+        <v>740895.4040040865</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>740895.4040040865</v>
+        <v>740895.4040040864</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>804071.833371481</v>
+        <v>804071.8333714812</v>
       </c>
     </row>
     <row r="9">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>788056.6328944757</v>
+        <v>788056.6328944758</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>788056.6328944757</v>
+        <v>788056.6328944758</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>689288.9683565737</v>
+        <v>689288.9683565738</v>
       </c>
       <c r="C2" t="n">
-        <v>689288.9683565737</v>
+        <v>689288.9683565738</v>
       </c>
       <c r="D2" t="n">
-        <v>690723.1551325922</v>
+        <v>690723.1551325924</v>
       </c>
       <c r="E2" t="n">
+        <v>623968.9645263453</v>
+      </c>
+      <c r="F2" t="n">
         <v>623968.9645263454</v>
-      </c>
-      <c r="F2" t="n">
-        <v>623968.9645263453</v>
       </c>
       <c r="G2" t="n">
         <v>690861.6544447631</v>
       </c>
       <c r="H2" t="n">
-        <v>690861.6544447633</v>
+        <v>690861.6544447632</v>
       </c>
       <c r="I2" t="n">
         <v>690861.6544447632</v>
@@ -26338,22 +26338,22 @@
         <v>690861.6544447632</v>
       </c>
       <c r="K2" t="n">
+        <v>690861.654444763</v>
+      </c>
+      <c r="L2" t="n">
+        <v>690861.6544447637</v>
+      </c>
+      <c r="M2" t="n">
+        <v>690861.6544447636</v>
+      </c>
+      <c r="N2" t="n">
         <v>690861.6544447632</v>
       </c>
-      <c r="L2" t="n">
-        <v>690861.6544447638</v>
-      </c>
-      <c r="M2" t="n">
-        <v>690861.6544447634</v>
-      </c>
-      <c r="N2" t="n">
-        <v>690861.6544447633</v>
-      </c>
       <c r="O2" t="n">
-        <v>668533.7148382</v>
+        <v>668533.7148381997</v>
       </c>
       <c r="P2" t="n">
-        <v>668533.7148381998</v>
+        <v>668533.7148381997</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>3109.306520341968</v>
       </c>
       <c r="E3" t="n">
-        <v>374397.5836627403</v>
+        <v>374397.5836627404</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50616.42829746703</v>
+        <v>50616.42829746711</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52688.19157324301</v>
+        <v>52688.19157324316</v>
       </c>
       <c r="M3" t="n">
-        <v>147591.2452609264</v>
+        <v>147591.2452609263</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14736.46536030518</v>
+        <v>14736.46536030519</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,13 +26430,13 @@
         <v>258356.8472850849</v>
       </c>
       <c r="G4" t="n">
-        <v>300544.5852893459</v>
+        <v>300544.585289346</v>
       </c>
       <c r="H4" t="n">
         <v>300544.585289346</v>
       </c>
       <c r="I4" t="n">
-        <v>300544.585289346</v>
+        <v>300544.5852893461</v>
       </c>
       <c r="J4" t="n">
         <v>298554.9100097942</v>
@@ -26476,7 +26476,7 @@
         <v>34236.18847000223</v>
       </c>
       <c r="E5" t="n">
-        <v>49998.56587267924</v>
+        <v>49998.56587267925</v>
       </c>
       <c r="F5" t="n">
         <v>49998.56587267925</v>
@@ -26494,7 +26494,7 @@
         <v>64627.25466179926</v>
       </c>
       <c r="K5" t="n">
-        <v>64627.25466179926</v>
+        <v>64627.25466179927</v>
       </c>
       <c r="L5" t="n">
         <v>64236.38002533605</v>
@@ -26506,10 +26506,10 @@
         <v>57041.74109215512</v>
       </c>
       <c r="O5" t="n">
-        <v>55280.51195643519</v>
+        <v>55280.51195643521</v>
       </c>
       <c r="P5" t="n">
-        <v>55280.51195643519</v>
+        <v>55280.51195643521</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>258591.2109528577</v>
+        <v>258586.8423803906</v>
       </c>
       <c r="C6" t="n">
-        <v>258591.2109528577</v>
+        <v>258586.8423803906</v>
       </c>
       <c r="D6" t="n">
-        <v>256601.048331028</v>
+        <v>256600.6636107166</v>
       </c>
       <c r="E6" t="n">
-        <v>-58784.03229415918</v>
+        <v>-58969.84532171052</v>
       </c>
       <c r="F6" t="n">
-        <v>315613.5513685811</v>
+        <v>315427.7383410301</v>
       </c>
       <c r="G6" t="n">
-        <v>284382.9843470962</v>
+        <v>284382.9843470961</v>
       </c>
       <c r="H6" t="n">
-        <v>334999.4126445634</v>
+        <v>334999.4126445632</v>
       </c>
       <c r="I6" t="n">
         <v>334999.4126445632</v>
@@ -26546,22 +26546,22 @@
         <v>233230.7357172774</v>
       </c>
       <c r="K6" t="n">
-        <v>327679.4897731699</v>
+        <v>327679.4897731696</v>
       </c>
       <c r="L6" t="n">
-        <v>275435.7857140554</v>
+        <v>275435.7857140551</v>
       </c>
       <c r="M6" t="n">
-        <v>188697.1555263427</v>
+        <v>188697.1555263429</v>
       </c>
       <c r="N6" t="n">
-        <v>336288.4007872691</v>
+        <v>336288.4007872689</v>
       </c>
       <c r="O6" t="n">
-        <v>315059.6318127054</v>
+        <v>314997.6097582423</v>
       </c>
       <c r="P6" t="n">
-        <v>329796.0971730103</v>
+        <v>329734.0751185474</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>102.6409218245012</v>
       </c>
       <c r="F2" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="G2" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H2" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="I2" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="J2" t="n">
         <v>102.6409218245012</v>
@@ -26713,7 +26713,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="L2" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="M2" t="n">
         <v>153.1656893025204</v>
@@ -26722,7 +26722,7 @@
         <v>153.1656893025204</v>
       </c>
       <c r="O2" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="P2" t="n">
         <v>132.2158845502345</v>
@@ -26744,10 +26744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132.2825006662236</v>
+        <v>132.2825006662237</v>
       </c>
       <c r="F3" t="n">
-        <v>132.2825006662238</v>
+        <v>132.2825006662239</v>
       </c>
       <c r="G3" t="n">
         <v>132.2825006662238</v>
@@ -26759,10 +26759,10 @@
         <v>132.2825006662238</v>
       </c>
       <c r="J3" t="n">
-        <v>132.2825006662237</v>
+        <v>132.2825006662238</v>
       </c>
       <c r="K3" t="n">
-        <v>132.2825006662238</v>
+        <v>132.2825006662239</v>
       </c>
       <c r="L3" t="n">
         <v>132.2825006662238</v>
@@ -26808,28 +26808,28 @@
         <v>632.9915740344009</v>
       </c>
       <c r="I4" t="n">
-        <v>632.9915740344011</v>
+        <v>632.991574034401</v>
       </c>
       <c r="J4" t="n">
-        <v>873.5950080659801</v>
+        <v>873.5950080659802</v>
       </c>
       <c r="K4" t="n">
-        <v>873.5950080659801</v>
+        <v>873.5950080659802</v>
       </c>
       <c r="L4" t="n">
-        <v>863.5853292830487</v>
+        <v>863.5853292830488</v>
       </c>
       <c r="M4" t="n">
         <v>678.9719776917414</v>
       </c>
       <c r="N4" t="n">
-        <v>678.971977691741</v>
+        <v>678.9719776917411</v>
       </c>
       <c r="O4" t="n">
-        <v>678.971977691741</v>
+        <v>678.9719776917411</v>
       </c>
       <c r="P4" t="n">
-        <v>678.971977691741</v>
+        <v>678.9719776917411</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>63.27053537183379</v>
+        <v>63.27053537183389</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39.37038645266743</v>
+        <v>39.37038645266736</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>65.86023946655376</v>
+        <v>65.86023946655395</v>
       </c>
       <c r="M2" t="n">
-        <v>47.93506338329919</v>
+        <v>47.93506338329911</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>18.42058170038148</v>
+        <v>18.42058170038149</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132.2825006662236</v>
+        <v>132.2825006662237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>240.603434031579</v>
+        <v>240.6034340315792</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>438.3685436601621</v>
+        <v>438.368543660162</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63.27053537183379</v>
+        <v>63.27053537183389</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.37038645266743</v>
+        <v>39.37038645266736</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>319.4833828757324</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
         <v>162.272501731286</v>
@@ -27910,7 +27910,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>323.5998025800867</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>147.8155695705169</v>
       </c>
       <c r="C9" t="n">
-        <v>150.0769572485235</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
@@ -27947,10 +27947,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>88.92880009583757</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>57.68878367390825</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,19 +27980,19 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>142.4549670453812</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>176.7885740127433</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>206.3001656947416</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>230.0861850070171</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>49.44698741703764</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>28.14228914991649</v>
       </c>
       <c r="R10" t="n">
-        <v>138.0168847888342</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>202.7561398983434</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>274.3086583328597</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>248.1182726142302</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>220.1234143915721</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>56.32691617187033</v>
+        <v>56.32691617187029</v>
       </c>
       <c r="S11" t="n">
         <v>102.6409218245012</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="C14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="D14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="E14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="F14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="G14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="I14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>56.32691617187029</v>
+        <v>56.32691617187025</v>
       </c>
       <c r="S14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="T14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="U14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="V14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="W14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="X14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="C16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="D16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="E16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="F16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="G16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="H16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="I16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="J16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="K16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="L16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="M16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="N16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="O16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="P16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="R16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="S16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="T16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="U16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="V16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="W16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="X16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.6409218245013</v>
+        <v>102.6409218245012</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="E17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="F17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="G17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="I17" t="n">
         <v>150.58723340858</v>
@@ -28612,25 +28612,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="T17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="V17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="18">
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H19" t="n">
         <v>155.6580616266899</v>
@@ -28770,25 +28770,25 @@
         <v>137.300838189878</v>
       </c>
       <c r="S19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="T19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U19" t="n">
-        <v>165.911457196335</v>
+        <v>12.74659064484609</v>
       </c>
       <c r="V19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X19" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y19" t="n">
-        <v>164.2877648853615</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="E20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="F20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="G20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="I20" t="n">
         <v>150.58723340858</v>
@@ -28849,25 +28849,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="T20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="V20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y20" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,7 +28971,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H22" t="n">
         <v>155.6580616266899</v>
@@ -29004,28 +29004,28 @@
         <v>18.17731033224807</v>
       </c>
       <c r="R22" t="n">
-        <v>137.300838189878</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>12.74659064484658</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="T22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U22" t="n">
-        <v>165.911457196335</v>
+        <v>150.047428834724</v>
       </c>
       <c r="V22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C23" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="D23" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="E23" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="F23" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="G23" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H23" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="I23" t="n">
         <v>150.58723340858</v>
@@ -29086,25 +29086,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S23" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="T23" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U23" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="V23" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W23" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X23" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y23" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="24">
@@ -29193,10 +29193,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="C25" t="n">
-        <v>165.911457196335</v>
+        <v>150.0474288347241</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="H25" t="n">
         <v>155.6580616266899</v>
@@ -29241,28 +29241,28 @@
         <v>18.17731033224807</v>
       </c>
       <c r="R25" t="n">
-        <v>137.300838189878</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>12.74659064484658</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="T25" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="U25" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="V25" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="W25" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="X25" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.911457196335</v>
+        <v>165.9114571963351</v>
       </c>
     </row>
     <row r="26">
@@ -29305,7 +29305,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="M26" t="n">
-        <v>102.6409218245012</v>
+        <v>5.828106290019718</v>
       </c>
       <c r="N26" t="n">
         <v>102.6409218245012</v>
@@ -29314,7 +29314,7 @@
         <v>102.6409218245012</v>
       </c>
       <c r="P26" t="n">
-        <v>5.828106290019377</v>
+        <v>102.6409218245012</v>
       </c>
       <c r="Q26" t="n">
         <v>102.6409218245012</v>
@@ -29548,10 +29548,10 @@
         <v>102.6409218245012</v>
       </c>
       <c r="O29" t="n">
+        <v>102.6409218245012</v>
+      </c>
+      <c r="P29" t="n">
         <v>5.828106290019207</v>
-      </c>
-      <c r="P29" t="n">
-        <v>102.6409218245012</v>
       </c>
       <c r="Q29" t="n">
         <v>102.6409218245012</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="C32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="D32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="E32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="F32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="G32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="H32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="I32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="J32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="K32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="L32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="M32" t="n">
-        <v>105.2306259192212</v>
+        <v>50.70681578573186</v>
       </c>
       <c r="N32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="O32" t="n">
-        <v>50.70681578573181</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="R32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="S32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="T32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="U32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="V32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="W32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="X32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="Y32" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="C34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="D34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="E34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="F34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="G34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="H34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="I34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="J34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23642391799682</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="L34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="M34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="N34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="O34" t="n">
-        <v>105.2306259192212</v>
+        <v>42.23642391799464</v>
       </c>
       <c r="P34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="Q34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="R34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="S34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="T34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="U34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="V34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="W34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="X34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
       <c r="Y34" t="n">
-        <v>105.2306259192212</v>
+        <v>105.2306259192213</v>
       </c>
     </row>
     <row r="35">
@@ -30192,10 +30192,10 @@
         <v>137.300838189878</v>
       </c>
       <c r="S37" t="n">
+        <v>153.1656893025204</v>
+      </c>
+      <c r="T37" t="n">
         <v>129.9508740133479</v>
-      </c>
-      <c r="T37" t="n">
-        <v>153.1656893025204</v>
       </c>
       <c r="U37" t="n">
         <v>153.1656893025204</v>
@@ -30426,10 +30426,10 @@
         <v>18.17731033224807</v>
       </c>
       <c r="R40" t="n">
-        <v>137.300838189878</v>
+        <v>114.0860229007056</v>
       </c>
       <c r="S40" t="n">
-        <v>129.9508740133479</v>
+        <v>153.1656893025204</v>
       </c>
       <c r="T40" t="n">
         <v>153.1656893025204</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="C41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="D41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="E41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="F41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="G41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="H41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="I41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>56.32691617187029</v>
       </c>
       <c r="S41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="T41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="U41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="V41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="W41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="X41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="Y41" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="C43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="D43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="E43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="F43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="G43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="H43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="I43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="J43" t="n">
-        <v>132.2158845502344</v>
+        <v>42.59173164781782</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,43 +30648,43 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>132.2158845502344</v>
+        <v>13.11929526556904</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.88833724563625</v>
+        <v>18.17731033224807</v>
       </c>
       <c r="R43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="S43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="T43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="U43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="V43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="W43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="X43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
       <c r="Y43" t="n">
-        <v>132.2158845502344</v>
+        <v>132.2158845502345</v>
       </c>
     </row>
     <row r="44">
@@ -30876,7 +30876,7 @@
         <v>132.2158845502345</v>
       </c>
       <c r="J46" t="n">
-        <v>42.59173164781782</v>
+        <v>73.88833724563503</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30885,19 +30885,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>132.2158845502345</v>
       </c>
-      <c r="N46" t="n">
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>132.2158845502345</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>31.29660559781794</v>
       </c>
       <c r="R46" t="n">
         <v>132.2158845502345</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5317889474019035</v>
+        <v>0.5317889474019041</v>
       </c>
       <c r="H11" t="n">
-        <v>5.446183557579745</v>
+        <v>5.446183557579752</v>
       </c>
       <c r="I11" t="n">
-        <v>20.5017933947119</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J11" t="n">
-        <v>45.13492217455235</v>
+        <v>45.1349221745524</v>
       </c>
       <c r="K11" t="n">
-        <v>67.64554831807494</v>
+        <v>67.64554831807502</v>
       </c>
       <c r="L11" t="n">
-        <v>83.92028431712596</v>
+        <v>83.92028431712605</v>
       </c>
       <c r="M11" t="n">
-        <v>93.37748601048456</v>
+        <v>93.37748601048466</v>
       </c>
       <c r="N11" t="n">
-        <v>94.88843135729023</v>
+        <v>94.88843135729033</v>
       </c>
       <c r="O11" t="n">
-        <v>89.60045501156254</v>
+        <v>89.60045501156263</v>
       </c>
       <c r="P11" t="n">
-        <v>76.47191537257804</v>
+        <v>76.47191537257812</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.42722369374735</v>
+        <v>57.42722369374741</v>
       </c>
       <c r="R11" t="n">
-        <v>33.40498746723485</v>
+        <v>33.40498746723489</v>
       </c>
       <c r="S11" t="n">
-        <v>12.11814063892089</v>
+        <v>12.1181406389209</v>
       </c>
       <c r="T11" t="n">
-        <v>2.327906117251834</v>
+        <v>2.327906117251836</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04254311579215227</v>
+        <v>0.04254311579215232</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.28453217124433</v>
+        <v>0.2845321712443303</v>
       </c>
       <c r="H12" t="n">
-        <v>2.747981759122872</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I12" t="n">
-        <v>9.796392738017504</v>
+        <v>9.796392738017515</v>
       </c>
       <c r="J12" t="n">
-        <v>26.88205044199173</v>
+        <v>26.88205044199175</v>
       </c>
       <c r="K12" t="n">
-        <v>45.94570591536183</v>
+        <v>45.94570591536188</v>
       </c>
       <c r="L12" t="n">
-        <v>61.7796716554849</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M12" t="n">
-        <v>72.09396286309185</v>
+        <v>72.09396286309193</v>
       </c>
       <c r="N12" t="n">
-        <v>74.00207553779616</v>
+        <v>74.00207553779624</v>
       </c>
       <c r="O12" t="n">
-        <v>67.69744163811916</v>
+        <v>67.69744163811924</v>
       </c>
       <c r="P12" t="n">
-        <v>54.33316522647211</v>
+        <v>54.33316522647217</v>
       </c>
       <c r="Q12" t="n">
-        <v>36.32028206971483</v>
+        <v>36.32028206971487</v>
       </c>
       <c r="R12" t="n">
-        <v>17.66595357953832</v>
+        <v>17.66595357953834</v>
       </c>
       <c r="S12" t="n">
-        <v>5.285060286051477</v>
+        <v>5.285060286051483</v>
       </c>
       <c r="T12" t="n">
-        <v>1.146864321813768</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01871922179239014</v>
+        <v>0.01871922179239016</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2385422143161409</v>
+        <v>0.2385422143161411</v>
       </c>
       <c r="H13" t="n">
-        <v>2.120857141828963</v>
+        <v>2.120857141828965</v>
       </c>
       <c r="I13" t="n">
-        <v>7.173614954161766</v>
+        <v>7.173614954161774</v>
       </c>
       <c r="J13" t="n">
-        <v>16.86493455215116</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K13" t="n">
-        <v>27.71426817236618</v>
+        <v>27.71426817236621</v>
       </c>
       <c r="L13" t="n">
-        <v>35.46472157205608</v>
+        <v>35.46472157205612</v>
       </c>
       <c r="M13" t="n">
-        <v>37.39257637684742</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N13" t="n">
-        <v>36.50346448712366</v>
+        <v>36.50346448712369</v>
       </c>
       <c r="O13" t="n">
-        <v>33.71685771079418</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P13" t="n">
-        <v>28.85059653874488</v>
+        <v>28.85059653874491</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.97465760059976</v>
+        <v>19.97465760059978</v>
       </c>
       <c r="R13" t="n">
-        <v>10.72572538188757</v>
+        <v>10.72572538188758</v>
       </c>
       <c r="S13" t="n">
-        <v>4.157140225854927</v>
+        <v>4.157140225854931</v>
       </c>
       <c r="T13" t="n">
-        <v>1.019225824805329</v>
+        <v>1.01922582480533</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01301139350815315</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5317889474019042</v>
+        <v>0.5317889474019047</v>
       </c>
       <c r="H14" t="n">
-        <v>5.446183557579753</v>
+        <v>5.446183557579759</v>
       </c>
       <c r="I14" t="n">
-        <v>20.50179339471193</v>
+        <v>20.50179339471195</v>
       </c>
       <c r="J14" t="n">
-        <v>45.13492217455241</v>
+        <v>45.13492217455246</v>
       </c>
       <c r="K14" t="n">
-        <v>67.64554831807503</v>
+        <v>67.6455483180751</v>
       </c>
       <c r="L14" t="n">
-        <v>83.92028431712606</v>
+        <v>83.92028431712616</v>
       </c>
       <c r="M14" t="n">
-        <v>93.37748601048467</v>
+        <v>93.37748601048477</v>
       </c>
       <c r="N14" t="n">
-        <v>94.88843135729034</v>
+        <v>94.88843135729044</v>
       </c>
       <c r="O14" t="n">
-        <v>89.60045501156266</v>
+        <v>89.60045501156276</v>
       </c>
       <c r="P14" t="n">
-        <v>76.47191537257814</v>
+        <v>76.47191537257821</v>
       </c>
       <c r="Q14" t="n">
-        <v>57.42722369374742</v>
+        <v>57.42722369374749</v>
       </c>
       <c r="R14" t="n">
-        <v>33.4049874672349</v>
+        <v>33.40498746723493</v>
       </c>
       <c r="S14" t="n">
-        <v>12.1181406389209</v>
+        <v>12.11814063892092</v>
       </c>
       <c r="T14" t="n">
-        <v>2.327906117251837</v>
+        <v>2.327906117251839</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04254311579215233</v>
+        <v>0.04254311579215237</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2845321712443304</v>
+        <v>0.2845321712443307</v>
       </c>
       <c r="H15" t="n">
-        <v>2.747981759122875</v>
+        <v>2.747981759122879</v>
       </c>
       <c r="I15" t="n">
-        <v>9.796392738017516</v>
+        <v>9.796392738017527</v>
       </c>
       <c r="J15" t="n">
-        <v>26.88205044199176</v>
+        <v>26.88205044199179</v>
       </c>
       <c r="K15" t="n">
-        <v>45.9457059153619</v>
+        <v>45.94570591536194</v>
       </c>
       <c r="L15" t="n">
-        <v>61.77967165548498</v>
+        <v>61.77967165548505</v>
       </c>
       <c r="M15" t="n">
-        <v>72.09396286309195</v>
+        <v>72.09396286309202</v>
       </c>
       <c r="N15" t="n">
-        <v>74.00207553779626</v>
+        <v>74.00207553779634</v>
       </c>
       <c r="O15" t="n">
-        <v>67.69744163811926</v>
+        <v>67.69744163811933</v>
       </c>
       <c r="P15" t="n">
-        <v>54.33316522647218</v>
+        <v>54.33316522647224</v>
       </c>
       <c r="Q15" t="n">
-        <v>36.32028206971488</v>
+        <v>36.32028206971491</v>
       </c>
       <c r="R15" t="n">
-        <v>17.66595357953834</v>
+        <v>17.66595357953836</v>
       </c>
       <c r="S15" t="n">
-        <v>5.285060286051484</v>
+        <v>5.28506028605149</v>
       </c>
       <c r="T15" t="n">
-        <v>1.14686432181377</v>
+        <v>1.146864321813771</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01871922179239017</v>
+        <v>0.01871922179239018</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2385422143161412</v>
+        <v>0.2385422143161414</v>
       </c>
       <c r="H16" t="n">
-        <v>2.120857141828966</v>
+        <v>2.120857141828968</v>
       </c>
       <c r="I16" t="n">
-        <v>7.173614954161776</v>
+        <v>7.173614954161783</v>
       </c>
       <c r="J16" t="n">
-        <v>16.86493455215118</v>
+        <v>16.8649345521512</v>
       </c>
       <c r="K16" t="n">
-        <v>27.71426817236622</v>
+        <v>27.71426817236625</v>
       </c>
       <c r="L16" t="n">
-        <v>35.46472157205613</v>
+        <v>35.46472157205616</v>
       </c>
       <c r="M16" t="n">
-        <v>37.39257637684747</v>
+        <v>37.39257637684752</v>
       </c>
       <c r="N16" t="n">
-        <v>36.50346448712371</v>
+        <v>36.50346448712374</v>
       </c>
       <c r="O16" t="n">
-        <v>33.71685771079422</v>
+        <v>33.71685771079426</v>
       </c>
       <c r="P16" t="n">
-        <v>28.85059653874492</v>
+        <v>28.85059653874495</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.97465760059979</v>
+        <v>19.97465760059981</v>
       </c>
       <c r="R16" t="n">
-        <v>10.72572538188758</v>
+        <v>10.72572538188759</v>
       </c>
       <c r="S16" t="n">
-        <v>4.157140225854932</v>
+        <v>4.157140225854937</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01922582480533</v>
+        <v>1.019225824805331</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01301139350815317</v>
+        <v>0.01301139350815319</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5317889474019039</v>
+        <v>0.5317889474019042</v>
       </c>
       <c r="H26" t="n">
-        <v>5.446183557579749</v>
+        <v>5.446183557579753</v>
       </c>
       <c r="I26" t="n">
-        <v>20.50179339471192</v>
+        <v>20.50179339471193</v>
       </c>
       <c r="J26" t="n">
-        <v>45.13492217455238</v>
+        <v>45.13492217455241</v>
       </c>
       <c r="K26" t="n">
-        <v>67.64554831807499</v>
+        <v>67.64554831807503</v>
       </c>
       <c r="L26" t="n">
-        <v>83.92028431712602</v>
+        <v>83.92028431712606</v>
       </c>
       <c r="M26" t="n">
-        <v>93.37748601048462</v>
+        <v>93.37748601048467</v>
       </c>
       <c r="N26" t="n">
-        <v>94.88843135729029</v>
+        <v>94.88843135729034</v>
       </c>
       <c r="O26" t="n">
-        <v>89.6004550115626</v>
+        <v>89.60045501156266</v>
       </c>
       <c r="P26" t="n">
-        <v>76.47191537257808</v>
+        <v>76.47191537257814</v>
       </c>
       <c r="Q26" t="n">
-        <v>57.42722369374739</v>
+        <v>57.42722369374742</v>
       </c>
       <c r="R26" t="n">
-        <v>33.40498746723487</v>
+        <v>33.4049874672349</v>
       </c>
       <c r="S26" t="n">
         <v>12.1181406389209</v>
       </c>
       <c r="T26" t="n">
-        <v>2.327906117251835</v>
+        <v>2.327906117251837</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0425431157921523</v>
+        <v>0.04254311579215233</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2845321712443302</v>
+        <v>0.2845321712443304</v>
       </c>
       <c r="H27" t="n">
-        <v>2.747981759122874</v>
+        <v>2.747981759122875</v>
       </c>
       <c r="I27" t="n">
-        <v>9.796392738017509</v>
+        <v>9.796392738017516</v>
       </c>
       <c r="J27" t="n">
-        <v>26.88205044199174</v>
+        <v>26.88205044199176</v>
       </c>
       <c r="K27" t="n">
-        <v>45.94570591536186</v>
+        <v>45.9457059153619</v>
       </c>
       <c r="L27" t="n">
-        <v>61.77967165548495</v>
+        <v>61.77967165548498</v>
       </c>
       <c r="M27" t="n">
-        <v>72.0939628630919</v>
+        <v>72.09396286309195</v>
       </c>
       <c r="N27" t="n">
-        <v>74.00207553779622</v>
+        <v>74.00207553779626</v>
       </c>
       <c r="O27" t="n">
-        <v>67.6974416381192</v>
+        <v>67.69744163811926</v>
       </c>
       <c r="P27" t="n">
-        <v>54.33316522647215</v>
+        <v>54.33316522647218</v>
       </c>
       <c r="Q27" t="n">
-        <v>36.32028206971486</v>
+        <v>36.32028206971488</v>
       </c>
       <c r="R27" t="n">
-        <v>17.66595357953833</v>
+        <v>17.66595357953834</v>
       </c>
       <c r="S27" t="n">
-        <v>5.285060286051481</v>
+        <v>5.285060286051484</v>
       </c>
       <c r="T27" t="n">
-        <v>1.146864321813769</v>
+        <v>1.14686432181377</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01871922179239015</v>
+        <v>0.01871922179239017</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.238542214316141</v>
+        <v>0.2385422143161412</v>
       </c>
       <c r="H28" t="n">
-        <v>2.120857141828965</v>
+        <v>2.120857141828966</v>
       </c>
       <c r="I28" t="n">
-        <v>7.173614954161771</v>
+        <v>7.173614954161776</v>
       </c>
       <c r="J28" t="n">
-        <v>16.86493455215117</v>
+        <v>16.86493455215118</v>
       </c>
       <c r="K28" t="n">
-        <v>27.7142681723662</v>
+        <v>27.71426817236622</v>
       </c>
       <c r="L28" t="n">
-        <v>35.4647215720561</v>
+        <v>35.46472157205613</v>
       </c>
       <c r="M28" t="n">
-        <v>37.39257637684745</v>
+        <v>37.39257637684747</v>
       </c>
       <c r="N28" t="n">
-        <v>36.50346448712368</v>
+        <v>36.50346448712371</v>
       </c>
       <c r="O28" t="n">
-        <v>33.7168577107942</v>
+        <v>33.71685771079422</v>
       </c>
       <c r="P28" t="n">
-        <v>28.8505965387449</v>
+        <v>28.85059653874492</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.97465760059978</v>
+        <v>19.97465760059979</v>
       </c>
       <c r="R28" t="n">
-        <v>10.72572538188757</v>
+        <v>10.72572538188758</v>
       </c>
       <c r="S28" t="n">
-        <v>4.157140225854929</v>
+        <v>4.157140225854932</v>
       </c>
       <c r="T28" t="n">
         <v>1.01922582480533</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01301139350815316</v>
+        <v>0.01301139350815317</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5317889474019042</v>
+        <v>0.5317889474019049</v>
       </c>
       <c r="H29" t="n">
-        <v>5.446183557579753</v>
+        <v>5.44618355757976</v>
       </c>
       <c r="I29" t="n">
-        <v>20.50179339471193</v>
+        <v>20.50179339471196</v>
       </c>
       <c r="J29" t="n">
-        <v>45.13492217455241</v>
+        <v>45.13492217455246</v>
       </c>
       <c r="K29" t="n">
-        <v>67.64554831807503</v>
+        <v>67.64554831807511</v>
       </c>
       <c r="L29" t="n">
-        <v>83.92028431712606</v>
+        <v>83.92028431712617</v>
       </c>
       <c r="M29" t="n">
-        <v>93.37748601048467</v>
+        <v>93.3774860104848</v>
       </c>
       <c r="N29" t="n">
-        <v>94.88843135729034</v>
+        <v>94.88843135729047</v>
       </c>
       <c r="O29" t="n">
-        <v>89.60045501156266</v>
+        <v>89.60045501156277</v>
       </c>
       <c r="P29" t="n">
-        <v>76.47191537257814</v>
+        <v>76.47191537257824</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.42722369374742</v>
+        <v>57.42722369374749</v>
       </c>
       <c r="R29" t="n">
-        <v>33.4049874672349</v>
+        <v>33.40498746723494</v>
       </c>
       <c r="S29" t="n">
-        <v>12.1181406389209</v>
+        <v>12.11814063892092</v>
       </c>
       <c r="T29" t="n">
-        <v>2.327906117251837</v>
+        <v>2.32790611725184</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04254311579215233</v>
+        <v>0.04254311579215238</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2845321712443304</v>
+        <v>0.2845321712443307</v>
       </c>
       <c r="H30" t="n">
-        <v>2.747981759122875</v>
+        <v>2.747981759122879</v>
       </c>
       <c r="I30" t="n">
-        <v>9.796392738017516</v>
+        <v>9.796392738017529</v>
       </c>
       <c r="J30" t="n">
-        <v>26.88205044199176</v>
+        <v>26.8820504419918</v>
       </c>
       <c r="K30" t="n">
-        <v>45.9457059153619</v>
+        <v>45.94570591536196</v>
       </c>
       <c r="L30" t="n">
-        <v>61.77967165548498</v>
+        <v>61.77967165548507</v>
       </c>
       <c r="M30" t="n">
-        <v>72.09396286309195</v>
+        <v>72.09396286309203</v>
       </c>
       <c r="N30" t="n">
-        <v>74.00207553779626</v>
+        <v>74.00207553779636</v>
       </c>
       <c r="O30" t="n">
-        <v>67.69744163811926</v>
+        <v>67.69744163811934</v>
       </c>
       <c r="P30" t="n">
-        <v>54.33316522647218</v>
+        <v>54.33316522647225</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.32028206971488</v>
+        <v>36.32028206971493</v>
       </c>
       <c r="R30" t="n">
-        <v>17.66595357953834</v>
+        <v>17.66595357953837</v>
       </c>
       <c r="S30" t="n">
-        <v>5.285060286051484</v>
+        <v>5.285060286051491</v>
       </c>
       <c r="T30" t="n">
-        <v>1.14686432181377</v>
+        <v>1.146864321813771</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01871922179239017</v>
+        <v>0.01871922179239019</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2385422143161412</v>
+        <v>0.2385422143161415</v>
       </c>
       <c r="H31" t="n">
-        <v>2.120857141828966</v>
+        <v>2.120857141828969</v>
       </c>
       <c r="I31" t="n">
-        <v>7.173614954161776</v>
+        <v>7.173614954161785</v>
       </c>
       <c r="J31" t="n">
-        <v>16.86493455215118</v>
+        <v>16.8649345521512</v>
       </c>
       <c r="K31" t="n">
-        <v>27.71426817236622</v>
+        <v>27.71426817236625</v>
       </c>
       <c r="L31" t="n">
-        <v>35.46472157205613</v>
+        <v>35.46472157205617</v>
       </c>
       <c r="M31" t="n">
-        <v>37.39257637684747</v>
+        <v>37.39257637684752</v>
       </c>
       <c r="N31" t="n">
-        <v>36.50346448712371</v>
+        <v>36.50346448712375</v>
       </c>
       <c r="O31" t="n">
-        <v>33.71685771079422</v>
+        <v>33.71685771079427</v>
       </c>
       <c r="P31" t="n">
-        <v>28.85059653874492</v>
+        <v>28.85059653874496</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.97465760059979</v>
+        <v>19.97465760059982</v>
       </c>
       <c r="R31" t="n">
-        <v>10.72572538188758</v>
+        <v>10.7257253818876</v>
       </c>
       <c r="S31" t="n">
-        <v>4.157140225854932</v>
+        <v>4.157140225854937</v>
       </c>
       <c r="T31" t="n">
-        <v>1.01922582480533</v>
+        <v>1.019225824805332</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01301139350815317</v>
+        <v>0.01301139350815319</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35176,16 +35176,16 @@
         <v>10.00967878293136</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>9.605247316954333</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>9.605247316954339</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="P9" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954339</v>
       </c>
       <c r="N10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="P10" t="n">
-        <v>9.605247316954333</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.8607244703156</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K11" t="n">
         <v>310.2115806865424</v>
       </c>
       <c r="L11" t="n">
-        <v>435.3196510695969</v>
+        <v>435.319651069597</v>
       </c>
       <c r="M11" t="n">
         <v>490.5887650540078</v>
       </c>
       <c r="N11" t="n">
-        <v>447.7908369070779</v>
+        <v>477.0413189206396</v>
       </c>
       <c r="O11" t="n">
-        <v>397.685893873011</v>
+        <v>397.6858938730111</v>
       </c>
       <c r="P11" t="n">
-        <v>306.933426944349</v>
+        <v>124.8696064021531</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>87.74482471785655</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L12" t="n">
-        <v>334.9070835093115</v>
+        <v>431.2966869788341</v>
       </c>
       <c r="M12" t="n">
-        <v>562.0266431764519</v>
+        <v>562.026643176452</v>
       </c>
       <c r="N12" t="n">
-        <v>590.4320211167073</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O12" t="n">
-        <v>463.8590080867564</v>
+        <v>1.970235034329535</v>
       </c>
       <c r="P12" t="n">
         <v>359.4805584342471</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.04919017668341</v>
+        <v>60.04919017668342</v>
       </c>
       <c r="K13" t="n">
         <v>164.2988139813557</v>
@@ -35574,19 +35574,19 @@
         <v>239.728955922072</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2188579261989</v>
+        <v>259.218857926199</v>
       </c>
       <c r="N13" t="n">
-        <v>258.7629133314232</v>
+        <v>258.7629133314233</v>
       </c>
       <c r="O13" t="n">
         <v>235.8160083188204</v>
       </c>
       <c r="P13" t="n">
-        <v>195.0960473815671</v>
+        <v>195.0960473815672</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.46361149225316</v>
+        <v>84.46361149225318</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K14" t="n">
-        <v>310.2115806865424</v>
+        <v>280.9610986729794</v>
       </c>
       <c r="L14" t="n">
-        <v>435.319651069597</v>
+        <v>435.3196510695971</v>
       </c>
       <c r="M14" t="n">
         <v>490.5887650540079</v>
       </c>
       <c r="N14" t="n">
-        <v>477.0413189206396</v>
+        <v>477.0413189206397</v>
       </c>
       <c r="O14" t="n">
-        <v>397.6858938730111</v>
+        <v>397.6858938730112</v>
       </c>
       <c r="P14" t="n">
-        <v>306.9334269443491</v>
+        <v>306.9334269443492</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.61024245675299</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>277.7543448650474</v>
+        <v>277.7543448650475</v>
       </c>
       <c r="L15" t="n">
-        <v>431.2966869788341</v>
+        <v>431.2966869788342</v>
       </c>
       <c r="M15" t="n">
-        <v>187.8826948418803</v>
+        <v>187.8826948418799</v>
       </c>
       <c r="N15" t="n">
-        <v>590.4320211167075</v>
+        <v>590.4320211167076</v>
       </c>
       <c r="O15" t="n">
-        <v>463.8590080867565</v>
+        <v>463.8590080867566</v>
       </c>
       <c r="P15" t="n">
-        <v>359.4805584342472</v>
+        <v>359.4805584342473</v>
       </c>
       <c r="Q15" t="n">
-        <v>195.6855646814262</v>
+        <v>195.6855646814263</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>60.04919017668345</v>
+        <v>60.04919017668342</v>
       </c>
       <c r="K16" t="n">
-        <v>164.2988139813558</v>
+        <v>164.2988139813557</v>
       </c>
       <c r="L16" t="n">
         <v>239.728955922072</v>
@@ -35823,7 +35823,7 @@
         <v>195.0960473815672</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.46361149225319</v>
+        <v>84.46361149225318</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K17" t="n">
         <v>310.2115806865424</v>
@@ -35899,7 +35899,7 @@
         <v>397.6858938730111</v>
       </c>
       <c r="P17" t="n">
-        <v>242.730330872469</v>
+        <v>124.8696064021531</v>
       </c>
       <c r="Q17" t="n">
         <v>152.8133385286333</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>87.74482471785656</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>277.7543448650474</v>
@@ -35969,10 +35969,10 @@
         <v>431.2966869788341</v>
       </c>
       <c r="M18" t="n">
-        <v>562.026643176452</v>
+        <v>187.8826948418803</v>
       </c>
       <c r="N18" t="n">
-        <v>128.5432480642791</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O18" t="n">
         <v>463.8590080867565</v>
@@ -36121,10 +36121,10 @@
         <v>117.8607244703157</v>
       </c>
       <c r="K20" t="n">
-        <v>280.9610986729799</v>
+        <v>310.2115806865424</v>
       </c>
       <c r="L20" t="n">
-        <v>435.319651069597</v>
+        <v>253.2558305274016</v>
       </c>
       <c r="M20" t="n">
         <v>490.5887650540079</v>
@@ -36139,7 +36139,7 @@
         <v>306.9334269443491</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>87.74482471785656</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>277.7543448650474</v>
       </c>
       <c r="L21" t="n">
-        <v>431.2966869788341</v>
+        <v>57.15273864426248</v>
       </c>
       <c r="M21" t="n">
         <v>562.026643176452</v>
       </c>
       <c r="N21" t="n">
-        <v>128.5432480642791</v>
+        <v>590.4320211167075</v>
       </c>
       <c r="O21" t="n">
         <v>463.8590080867565</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>117.8607244703157</v>
       </c>
       <c r="K23" t="n">
-        <v>310.2115806865424</v>
+        <v>128.1477601443471</v>
       </c>
       <c r="L23" t="n">
         <v>435.319651069597</v>
@@ -36376,7 +36376,7 @@
         <v>306.9334269443491</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.61024245675391</v>
+        <v>152.8133385286333</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L24" t="n">
-        <v>431.2966869788341</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>562.026643176452</v>
@@ -36452,10 +36452,10 @@
         <v>463.8590080867565</v>
       </c>
       <c r="P24" t="n">
-        <v>359.4805584342472</v>
+        <v>328.8884723606532</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.29596121190235</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36598,19 +36598,19 @@
         <v>412.8525025110437</v>
       </c>
       <c r="L26" t="n">
-        <v>537.9605728940982</v>
+        <v>537.9605728940983</v>
       </c>
       <c r="M26" t="n">
-        <v>593.229686878509</v>
+        <v>496.4168713440276</v>
       </c>
       <c r="N26" t="n">
-        <v>579.6822407451407</v>
+        <v>579.6822407451408</v>
       </c>
       <c r="O26" t="n">
-        <v>500.3268156975122</v>
+        <v>500.3268156975123</v>
       </c>
       <c r="P26" t="n">
-        <v>312.7615332343684</v>
+        <v>409.5743487688503</v>
       </c>
       <c r="Q26" t="n">
         <v>255.4542603531345</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K27" t="n">
         <v>277.7543448650474</v>
@@ -36680,19 +36680,19 @@
         <v>431.2966869788341</v>
       </c>
       <c r="M27" t="n">
-        <v>383.5682595233073</v>
+        <v>459.6184285582715</v>
       </c>
       <c r="N27" t="n">
         <v>590.4320211167075</v>
       </c>
       <c r="O27" t="n">
-        <v>463.8590080867564</v>
+        <v>463.8590080867565</v>
       </c>
       <c r="P27" t="n">
-        <v>359.4805584342471</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>259.2188579261989</v>
       </c>
       <c r="N28" t="n">
-        <v>258.7629133314232</v>
+        <v>258.7629133314233</v>
       </c>
       <c r="O28" t="n">
         <v>235.8160083188204</v>
@@ -36771,7 +36771,7 @@
         <v>195.0960473815671</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.46361149225316</v>
+        <v>84.46361149225315</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>220.5016462948169</v>
+        <v>220.501646294817</v>
       </c>
       <c r="K29" t="n">
-        <v>412.8525025110437</v>
+        <v>412.8525025110438</v>
       </c>
       <c r="L29" t="n">
         <v>537.9605728940983</v>
       </c>
       <c r="M29" t="n">
-        <v>593.229686878509</v>
+        <v>593.2296868785093</v>
       </c>
       <c r="N29" t="n">
-        <v>579.6822407451408</v>
+        <v>579.6822407451409</v>
       </c>
       <c r="O29" t="n">
-        <v>403.5140001630303</v>
+        <v>500.3268156975124</v>
       </c>
       <c r="P29" t="n">
-        <v>409.5743487688503</v>
+        <v>312.7615332343684</v>
       </c>
       <c r="Q29" t="n">
-        <v>255.4542603531345</v>
+        <v>255.4542603531346</v>
       </c>
       <c r="R29" t="n">
-        <v>46.31400565263095</v>
+        <v>46.31400565263099</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>87.74482471785656</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>277.7543448650474</v>
+        <v>277.7543448650475</v>
       </c>
       <c r="L30" t="n">
-        <v>431.2966869788341</v>
+        <v>431.2966869788342</v>
       </c>
       <c r="M30" t="n">
-        <v>100.1378701240242</v>
+        <v>562.0266431764521</v>
       </c>
       <c r="N30" t="n">
-        <v>590.4320211167075</v>
+        <v>590.4320211167076</v>
       </c>
       <c r="O30" t="n">
-        <v>463.8590080867565</v>
+        <v>463.8590080867566</v>
       </c>
       <c r="P30" t="n">
-        <v>359.4805584342472</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>195.6855646814262</v>
+        <v>181.0221747811017</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.04919017668342</v>
+        <v>60.04919017668344</v>
       </c>
       <c r="K31" t="n">
-        <v>164.2988139813557</v>
+        <v>164.2988139813558</v>
       </c>
       <c r="L31" t="n">
-        <v>239.728955922072</v>
+        <v>239.7289559220721</v>
       </c>
       <c r="M31" t="n">
         <v>259.218857926199</v>
@@ -37008,7 +37008,7 @@
         <v>195.0960473815672</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.46361149225316</v>
+        <v>84.46361149225319</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>223.0913503895369</v>
+        <v>223.091350389537</v>
       </c>
       <c r="K32" t="n">
-        <v>415.4422066057637</v>
+        <v>415.4422066057638</v>
       </c>
       <c r="L32" t="n">
         <v>540.5502769888183</v>
       </c>
       <c r="M32" t="n">
-        <v>595.819390973229</v>
+        <v>541.2955808397397</v>
       </c>
       <c r="N32" t="n">
         <v>582.2719448398608</v>
       </c>
       <c r="O32" t="n">
-        <v>448.3927096587429</v>
+        <v>502.9165197922324</v>
       </c>
       <c r="P32" t="n">
         <v>306.9334269443491</v>
       </c>
       <c r="Q32" t="n">
-        <v>258.0439644478545</v>
+        <v>258.0439644478546</v>
       </c>
       <c r="R32" t="n">
-        <v>48.90370974735092</v>
+        <v>48.90370974735101</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>87.74482471785656</v>
       </c>
       <c r="K33" t="n">
-        <v>277.7543448650474</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>431.2966869788341</v>
       </c>
       <c r="M33" t="n">
-        <v>100.1378701240239</v>
+        <v>377.8922149890714</v>
       </c>
       <c r="N33" t="n">
         <v>590.4320211167075</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.63889427140339</v>
+        <v>62.63889427140348</v>
       </c>
       <c r="K34" t="n">
-        <v>103.8943160748513</v>
+        <v>166.8885180760758</v>
       </c>
       <c r="L34" t="n">
-        <v>242.318660016792</v>
+        <v>242.3186600167921</v>
       </c>
       <c r="M34" t="n">
-        <v>261.8085620209189</v>
+        <v>261.808562020919</v>
       </c>
       <c r="N34" t="n">
-        <v>261.3526174261433</v>
+        <v>261.3526174261434</v>
       </c>
       <c r="O34" t="n">
-        <v>238.4057124135404</v>
+        <v>175.4115104123138</v>
       </c>
       <c r="P34" t="n">
-        <v>197.6857514762871</v>
+        <v>197.6857514762872</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.05331558697314</v>
+        <v>87.05331558697323</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,13 +37312,13 @@
         <v>435.319651069597</v>
       </c>
       <c r="M35" t="n">
-        <v>490.5887650540092</v>
+        <v>490.5887650540079</v>
       </c>
       <c r="N35" t="n">
         <v>477.0413189206396</v>
       </c>
       <c r="O35" t="n">
-        <v>397.6858938730111</v>
+        <v>397.6858938730124</v>
       </c>
       <c r="P35" t="n">
         <v>306.9334269443491</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>87.74482471785656</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>277.7543448650474</v>
       </c>
       <c r="L36" t="n">
         <v>431.2966869788341</v>
@@ -37394,7 +37394,7 @@
         <v>562.026643176452</v>
       </c>
       <c r="N36" t="n">
-        <v>590.4320211167075</v>
+        <v>128.5432480642793</v>
       </c>
       <c r="O36" t="n">
         <v>463.8590080867565</v>
@@ -37403,7 +37403,7 @@
         <v>359.4805584342472</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.29596121190235</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37558,10 +37558,10 @@
         <v>397.6858938730111</v>
       </c>
       <c r="P38" t="n">
-        <v>306.9334269443489</v>
+        <v>306.9334269443491</v>
       </c>
       <c r="Q38" t="n">
-        <v>152.8133385286333</v>
+        <v>152.8133385286338</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>87.74482471785656</v>
       </c>
       <c r="K39" t="n">
-        <v>277.7543448650474</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>431.2966869788341</v>
       </c>
       <c r="M39" t="n">
-        <v>100.1378701240239</v>
+        <v>377.8922149890712</v>
       </c>
       <c r="N39" t="n">
         <v>590.4320211167075</v>
@@ -37862,13 +37862,13 @@
         <v>277.7543448650474</v>
       </c>
       <c r="L42" t="n">
-        <v>431.2966869788341</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>562.026643176452</v>
       </c>
       <c r="N42" t="n">
-        <v>128.5432480642796</v>
+        <v>559.8399350431135</v>
       </c>
       <c r="O42" t="n">
         <v>463.8590080867565</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>89.62415290241664</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>61.65789215685452</v>
@@ -37944,19 +37944,19 @@
         <v>137.0880340975708</v>
       </c>
       <c r="M43" t="n">
-        <v>156.5779361016977</v>
+        <v>288.7938206519323</v>
       </c>
       <c r="N43" t="n">
         <v>156.1219915069221</v>
       </c>
       <c r="O43" t="n">
-        <v>265.3909710445536</v>
+        <v>146.2943817598882</v>
       </c>
       <c r="P43" t="n">
-        <v>92.45512555706593</v>
+        <v>224.6710101073004</v>
       </c>
       <c r="Q43" t="n">
-        <v>55.71102691338819</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>117.8607244703157</v>
       </c>
       <c r="K44" t="n">
-        <v>310.211580686542</v>
+        <v>310.2115806865424</v>
       </c>
       <c r="L44" t="n">
-        <v>435.319651069597</v>
+        <v>435.3196510695975</v>
       </c>
       <c r="M44" t="n">
         <v>490.5887650540079</v>
@@ -38102,7 +38102,7 @@
         <v>431.2966869788341</v>
       </c>
       <c r="M45" t="n">
-        <v>562.026643176452</v>
+        <v>187.8826948418805</v>
       </c>
       <c r="N45" t="n">
         <v>590.4320211167075</v>
@@ -38111,10 +38111,10 @@
         <v>463.8590080867565</v>
       </c>
       <c r="P45" t="n">
-        <v>181.0221747811022</v>
+        <v>359.4805584342472</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>195.6855646814262</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>31.29660559781722</v>
       </c>
       <c r="K46" t="n">
         <v>61.65789215685452</v>
@@ -38181,19 +38181,19 @@
         <v>137.0880340975708</v>
       </c>
       <c r="M46" t="n">
-        <v>288.7938206519322</v>
+        <v>156.5779361016977</v>
       </c>
       <c r="N46" t="n">
-        <v>288.3378760571566</v>
+        <v>156.1219915069221</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1750864943191</v>
+        <v>265.3909710445537</v>
       </c>
       <c r="P46" t="n">
         <v>92.45512555706593</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.11929526556988</v>
+        <v>114.0385742179865</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
